--- a/reports/report_optimized_mobility - con derivacion.xlsx
+++ b/reports/report_optimized_mobility - con derivacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="810" windowWidth="19575" windowHeight="6825" activeTab="6"/>
+    <workbookView xWindow="510" yWindow="810" windowWidth="19575" windowHeight="6825"/>
   </bookViews>
   <sheets>
     <sheet name="locoms" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="global_results" sheetId="6" r:id="rId6"/>
     <sheet name="costs" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">links!$A$1:$I$148</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -11407,8 +11410,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11710,13 +11715,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11724,7 +11735,7 @@
         <v>1276.8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11732,7 +11743,7 @@
         <v>4696080</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11740,7 +11751,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11748,7 +11759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11756,7 +11767,7 @@
         <v>980501883.04984069</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11764,7 +11775,7 @@
         <v>712196.23800000024</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -11772,15 +11783,17 @@
         <v>6570</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1486863.2349999989</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -11788,7 +11801,7 @@
         <v>1189490.5879999991</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -11796,7 +11809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -11804,7 +11817,7 @@
         <v>736407</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -11812,7 +11825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -11820,7 +11833,7 @@
         <v>890245.29749999964</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -11828,7 +11841,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -11836,7 +11849,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -12010,9 +12023,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12045,2605 +12068,2641 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2">
-        <v>161</v>
-      </c>
-      <c r="D2">
-        <v>3664836.0801797691</v>
-      </c>
-      <c r="E2">
-        <v>856.7198202314321</v>
-      </c>
-      <c r="F2">
-        <v>88147.5</v>
-      </c>
-      <c r="G2">
-        <v>10725983.36525929</v>
-      </c>
-      <c r="H2">
-        <v>837358.00562608964</v>
-      </c>
-      <c r="I2">
-        <v>987475166.59283721</v>
+        <v>74</v>
+      </c>
+      <c r="D2" s="2">
+        <v>16197797.939887989</v>
+      </c>
+      <c r="E2" s="2">
+        <v>963.66011201916263</v>
+      </c>
+      <c r="F2" s="2">
+        <v>40515</v>
+      </c>
+      <c r="G2" s="2">
+        <v>17855385.152767949</v>
+      </c>
+      <c r="H2" s="2">
+        <v>610955.90676357015</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2005995280.618206</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3">
-        <v>58.2</v>
-      </c>
-      <c r="D3">
-        <v>10748859.56143993</v>
-      </c>
-      <c r="E3">
-        <v>1932318.038560068</v>
-      </c>
-      <c r="F3">
-        <v>31864.5</v>
-      </c>
-      <c r="G3">
-        <v>9696616.9750756528</v>
-      </c>
-      <c r="H3">
-        <v>422607.28767282149</v>
-      </c>
-      <c r="I3">
-        <v>1055759072.7114021</v>
+        <v>76</v>
+      </c>
+      <c r="D3" s="2">
+        <v>15649559.239730271</v>
+      </c>
+      <c r="E3" s="2">
+        <v>178.36026973091069</v>
+      </c>
+      <c r="F3" s="2">
+        <v>41610</v>
+      </c>
+      <c r="G3" s="2">
+        <v>17757236.442684881</v>
+      </c>
+      <c r="H3" s="2">
+        <v>620542.14260447421</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1990475953.540632</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4">
-        <v>169</v>
-      </c>
-      <c r="D4">
-        <v>2569630.3933681101</v>
-      </c>
-      <c r="E4">
-        <v>568.00663188938051</v>
-      </c>
-      <c r="F4">
-        <v>92527.5</v>
-      </c>
-      <c r="G4">
-        <v>8679382.5154400896</v>
-      </c>
-      <c r="H4">
-        <v>791576.3857320426</v>
-      </c>
-      <c r="I4">
-        <v>726779817.71683586</v>
+        <v>105</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15397383.897939829</v>
+      </c>
+      <c r="E4" s="2">
+        <v>824.10206017177552</v>
+      </c>
+      <c r="F4" s="2">
+        <v>57487.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>24164047.062462281</v>
+      </c>
+      <c r="H4" s="2">
+        <v>852855.97788357339</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2705691802.904922</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5">
-        <v>55.6</v>
-      </c>
-      <c r="D5">
-        <v>5024139.9039771762</v>
-      </c>
-      <c r="E5">
-        <v>2618784.8960228232</v>
-      </c>
-      <c r="F5">
-        <v>30441</v>
-      </c>
-      <c r="G5">
-        <v>4852360.4784736009</v>
-      </c>
-      <c r="H5">
-        <v>320334.14455315022</v>
-      </c>
-      <c r="I5">
-        <v>478899445.00704229</v>
+        <v>80</v>
+      </c>
+      <c r="D5" s="2">
+        <v>14540021.248698691</v>
+      </c>
+      <c r="E5" s="2">
+        <v>177.15130131784829</v>
+      </c>
+      <c r="F5" s="2">
+        <v>43800</v>
+      </c>
+      <c r="G5" s="2">
+        <v>17454765.51839795</v>
+      </c>
+      <c r="H5" s="2">
+        <v>637937.36177903472</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1946687664.119642</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6">
-        <v>202</v>
-      </c>
-      <c r="D6">
-        <v>2247943.925842646</v>
-      </c>
-      <c r="E6">
-        <v>500.87415735435212</v>
-      </c>
-      <c r="F6">
-        <v>110595</v>
-      </c>
-      <c r="G6">
-        <v>9468549.4543844536</v>
-      </c>
-      <c r="H6">
-        <v>910115.93872927595</v>
-      </c>
-      <c r="I6">
-        <v>759945368.86558008</v>
+        <v>69.900000000000006</v>
+      </c>
+      <c r="D6" s="2">
+        <v>13806890.64162072</v>
+      </c>
+      <c r="E6" s="2">
+        <v>424.55837928783149</v>
+      </c>
+      <c r="F6" s="2">
+        <v>38270.25</v>
+      </c>
+      <c r="G6" s="2">
+        <v>14536915.8217807</v>
+      </c>
+      <c r="H6" s="2">
+        <v>548227.25943084806</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1615156787.1881499</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>208</v>
-      </c>
-      <c r="D7">
-        <v>3513743.284244189</v>
-      </c>
-      <c r="E7">
-        <v>10.31575581175275</v>
-      </c>
-      <c r="F7">
-        <v>113880</v>
-      </c>
-      <c r="G7">
-        <v>13419063.92243132</v>
-      </c>
-      <c r="H7">
-        <v>1068317.035337205</v>
-      </c>
-      <c r="I7">
-        <v>1223135085.9339769</v>
+        <v>142</v>
+      </c>
+      <c r="D7" s="2">
+        <v>13716627.399837879</v>
+      </c>
+      <c r="E7" s="2">
+        <v>35.000162129523233</v>
+      </c>
+      <c r="F7" s="2">
+        <v>77745</v>
+      </c>
+      <c r="G7" s="2">
+        <v>29352691.919322979</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1111371.9799404291</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3259693292.4299412</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>298</v>
-      </c>
-      <c r="D8">
-        <v>735096.43695306755</v>
-      </c>
-      <c r="E8">
-        <v>340.36304693261633</v>
-      </c>
-      <c r="F8">
-        <v>163155</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>984658.63235724345</v>
-      </c>
-      <c r="I8">
-        <v>366615644.29059398</v>
+        <v>100</v>
+      </c>
+      <c r="D8" s="2">
+        <v>13193805.745552961</v>
+      </c>
+      <c r="E8" s="2">
+        <v>645.45444703660905</v>
+      </c>
+      <c r="F8" s="2">
+        <v>54750</v>
+      </c>
+      <c r="G8" s="2">
+        <v>19942309.703026831</v>
+      </c>
+      <c r="H8" s="2">
+        <v>772987.6713700348</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2208066154.6477342</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9">
-        <v>114</v>
-      </c>
-      <c r="D9">
-        <v>3570013.1084175259</v>
-      </c>
-      <c r="E9">
-        <v>1196.4915824746711</v>
-      </c>
-      <c r="F9">
-        <v>62414.999999999993</v>
-      </c>
-      <c r="G9">
-        <v>7444167.9309786176</v>
-      </c>
-      <c r="H9">
-        <v>588298.1727717499</v>
-      </c>
-      <c r="I9">
-        <v>681118183.85935867</v>
+        <v>115</v>
+      </c>
+      <c r="D9" s="2">
+        <v>13162300.670007249</v>
+      </c>
+      <c r="E9" s="2">
+        <v>230.5299927499145</v>
+      </c>
+      <c r="F9" s="2">
+        <v>62962.499999999993</v>
+      </c>
+      <c r="G9" s="2">
+        <v>22883131.271586869</v>
+      </c>
+      <c r="H9" s="2">
+        <v>888256.48574139166</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2533208896.7239499</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>216</v>
-      </c>
-      <c r="D10">
-        <v>682485.63673157757</v>
-      </c>
-      <c r="E10">
-        <v>602.36326842219569</v>
-      </c>
-      <c r="F10">
-        <v>118260</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>699828.63500585523</v>
-      </c>
-      <c r="I10">
-        <v>246721050.82808071</v>
+        <v>228</v>
+      </c>
+      <c r="D10" s="2">
+        <v>12525261.940798949</v>
+      </c>
+      <c r="E10" s="2">
+        <v>146.05920105613771</v>
+      </c>
+      <c r="F10" s="2">
+        <v>124830</v>
+      </c>
+      <c r="G10" s="2">
+        <v>43344051.468173511</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1733397.890723855</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4779284700.1820173</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11">
-        <v>366</v>
-      </c>
-      <c r="D11">
-        <v>4526401.4697808344</v>
-      </c>
-      <c r="E11">
-        <v>1131.3302191663529</v>
-      </c>
-      <c r="F11">
-        <v>200385</v>
-      </c>
-      <c r="G11">
-        <v>28778051.739645738</v>
-      </c>
-      <c r="H11">
-        <v>2028132.547214729</v>
-      </c>
-      <c r="I11">
-        <v>2772555429.57061</v>
+        <v>72</v>
+      </c>
+      <c r="D11" s="2">
+        <v>11348630.69624689</v>
+      </c>
+      <c r="E11" s="2">
+        <v>844.5037531144917</v>
+      </c>
+      <c r="F11" s="2">
+        <v>39420</v>
+      </c>
+      <c r="G11" s="2">
+        <v>12506947.843350001</v>
+      </c>
+      <c r="H11" s="2">
+        <v>530479.38947731967</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1367472097.1117859</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12">
-        <v>68</v>
-      </c>
-      <c r="D12">
-        <v>5450575.745019</v>
-      </c>
-      <c r="E12">
-        <v>83.454981000162661</v>
-      </c>
-      <c r="F12">
-        <v>37230</v>
-      </c>
-      <c r="G12">
-        <v>6222530.1427046042</v>
-      </c>
-      <c r="H12">
-        <v>398688.36902392493</v>
-      </c>
-      <c r="I12">
-        <v>620286892.7215848</v>
+        <v>58.2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10748859.56143993</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1932318.038560068</v>
+      </c>
+      <c r="F12" s="2">
+        <v>31864.5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>9696616.9750756528</v>
+      </c>
+      <c r="H12" s="2">
+        <v>422607.28767282149</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1055759072.7114021</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13">
-        <v>82</v>
-      </c>
-      <c r="D13">
-        <v>387663.80081934732</v>
-      </c>
-      <c r="E13">
-        <v>483.39918065270467</v>
-      </c>
-      <c r="F13">
-        <v>44895</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>229686.7876433646</v>
-      </c>
-      <c r="I13">
-        <v>53202917.183368906</v>
+        <v>94.8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10746651.148927091</v>
+      </c>
+      <c r="E13" s="2">
+        <v>174.45107290707529</v>
+      </c>
+      <c r="F13" s="2">
+        <v>51903</v>
+      </c>
+      <c r="G13" s="2">
+        <v>15672106.05154066</v>
+      </c>
+      <c r="H13" s="2">
+        <v>686502.89252171759</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1704993860.89346</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14">
-        <v>110</v>
-      </c>
-      <c r="D14">
-        <v>7398449.2389865546</v>
-      </c>
-      <c r="E14">
-        <v>606.76101344684139</v>
-      </c>
-      <c r="F14">
-        <v>60225.000000000007</v>
-      </c>
-      <c r="G14">
-        <v>13052053.411498491</v>
-      </c>
-      <c r="H14">
-        <v>708579.32661884418</v>
-      </c>
-      <c r="I14">
-        <v>1361996687.8888309</v>
+        <v>90</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9824692.1525988504</v>
+      </c>
+      <c r="E14" s="2">
+        <v>283.8474011500366</v>
+      </c>
+      <c r="F14" s="2">
+        <v>49275</v>
+      </c>
+      <c r="G14" s="2">
+        <v>13722173.67364539</v>
+      </c>
+      <c r="H14" s="2">
+        <v>633540.77120868233</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1479800087.623121</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15">
-        <v>185</v>
-      </c>
-      <c r="D15">
-        <v>3784883.7598933131</v>
-      </c>
-      <c r="E15">
-        <v>828.24010668508708</v>
-      </c>
-      <c r="F15">
-        <v>101287.5</v>
-      </c>
-      <c r="G15">
-        <v>12634401.554070439</v>
-      </c>
-      <c r="H15">
-        <v>971486.19000056363</v>
-      </c>
-      <c r="I15">
-        <v>1171843790.5685151</v>
+        <v>140</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8849422.0969725214</v>
+      </c>
+      <c r="E15" s="2">
+        <v>78.703027480281889</v>
+      </c>
+      <c r="F15" s="2">
+        <v>76650</v>
+      </c>
+      <c r="G15" s="2">
+        <v>19442700.750586249</v>
+      </c>
+      <c r="H15" s="2">
+        <v>953652.33713254263</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2073404934.99053</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>360</v>
-      </c>
-      <c r="D16">
-        <v>8149.7311264683603</v>
-      </c>
-      <c r="E16">
-        <v>787.86887353161001</v>
-      </c>
-      <c r="F16">
-        <v>197100</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>456284.33159685461</v>
-      </c>
-      <c r="I16">
-        <v>4932274.1612004004</v>
+        <v>258</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8762210.5594477691</v>
+      </c>
+      <c r="E16" s="2">
+        <v>467.84055223455653</v>
+      </c>
+      <c r="F16" s="2">
+        <v>141255</v>
+      </c>
+      <c r="G16" s="2">
+        <v>35516602.053806938</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1752000.059048271</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3783340917.395575</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C17">
-        <v>353</v>
-      </c>
-      <c r="D17">
-        <v>1804883.4277640569</v>
-      </c>
-      <c r="E17">
-        <v>511.77223594300449</v>
-      </c>
-      <c r="F17">
-        <v>193267.5</v>
-      </c>
-      <c r="G17">
-        <v>14366825.024987189</v>
-      </c>
-      <c r="H17">
-        <v>1493413.2319852761</v>
-      </c>
-      <c r="I17">
-        <v>1066278436.905898</v>
+        <v>103</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8459985.5060933866</v>
+      </c>
+      <c r="E17" s="2">
+        <v>91.293906613951549</v>
+      </c>
+      <c r="F17" s="2">
+        <v>56392.5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>13745245.7860185</v>
+      </c>
+      <c r="H17" s="2">
+        <v>691798.60070630279</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1458303989.941678</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>260</v>
-      </c>
-      <c r="D18">
-        <v>1410530.0420475821</v>
-      </c>
-      <c r="E18">
-        <v>333.95795241789892</v>
-      </c>
-      <c r="F18">
-        <v>142350</v>
-      </c>
-      <c r="G18">
-        <v>9152813.1038100999</v>
-      </c>
-      <c r="H18">
-        <v>1026078.2678004151</v>
-      </c>
-      <c r="I18">
-        <v>613764126.96354473</v>
+        <v>166</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8413447.065982338</v>
+      </c>
+      <c r="E18" s="2">
+        <v>664.93401766242459</v>
+      </c>
+      <c r="F18" s="2">
+        <v>90885</v>
+      </c>
+      <c r="G18" s="2">
+        <v>22044927.97161749</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1113017.1903650609</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2337354911.1394181</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>250</v>
-      </c>
-      <c r="D19">
-        <v>694547.31930511282</v>
-      </c>
-      <c r="E19">
-        <v>31.880694886902351</v>
-      </c>
-      <c r="F19">
-        <v>136875</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>813732.87041359267</v>
-      </c>
-      <c r="I19">
-        <v>290592085.67525327</v>
+        <v>60</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8343089.7892636843</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3569454.210736318</v>
+      </c>
+      <c r="F19" s="2">
+        <v>32850</v>
+      </c>
+      <c r="G19" s="2">
+        <v>8048872.0312186377</v>
+      </c>
+      <c r="H19" s="2">
+        <v>403735.11742797121</v>
+      </c>
+      <c r="I19" s="2">
+        <v>854532879.82952404</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20">
-        <v>200</v>
-      </c>
-      <c r="D20">
-        <v>5650128.5019387407</v>
-      </c>
-      <c r="E20">
-        <v>988.29806126188487</v>
-      </c>
-      <c r="F20">
-        <v>109500</v>
-      </c>
-      <c r="G20">
-        <v>18857897.93855482</v>
-      </c>
-      <c r="H20">
-        <v>1185576.3145589081</v>
-      </c>
-      <c r="I20">
-        <v>1891180045.8566461</v>
+        <v>69.5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7831550.7052359106</v>
+      </c>
+      <c r="E20" s="2">
+        <v>340.49476409005001</v>
+      </c>
+      <c r="F20" s="2">
+        <v>38051.25</v>
+      </c>
+      <c r="G20" s="2">
+        <v>8666014.4060331192</v>
+      </c>
+      <c r="H20" s="2">
+        <v>455685.0892496134</v>
+      </c>
+      <c r="I20" s="2">
+        <v>910907868.06978619</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
       <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <v>6391950.9238925232</v>
-      </c>
-      <c r="E21">
-        <v>986.67610747762956</v>
-      </c>
-      <c r="F21">
-        <v>54750</v>
-      </c>
-      <c r="G21">
-        <v>10462803.18392645</v>
-      </c>
-      <c r="H21">
-        <v>615673.89451481169</v>
-      </c>
-      <c r="I21">
-        <v>1069738361.668569</v>
+        <v>250</v>
+      </c>
+      <c r="D21" s="2">
+        <v>7575353.8086135574</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1177.3913864434001</v>
+      </c>
+      <c r="F21" s="2">
+        <v>136875</v>
+      </c>
+      <c r="G21" s="2">
+        <v>30280216.481195509</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1622277.9146812579</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3169473245.1018362</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C22">
-        <v>208</v>
-      </c>
-      <c r="D22">
-        <v>1532383.444452689</v>
-      </c>
-      <c r="E22">
-        <v>1053.3555473118611</v>
-      </c>
-      <c r="F22">
-        <v>113880</v>
-      </c>
-      <c r="G22">
-        <v>7675580.3593663014</v>
-      </c>
-      <c r="H22">
-        <v>840159.67973370431</v>
-      </c>
-      <c r="I22">
-        <v>533440220.99744439</v>
+        <v>120</v>
+      </c>
+      <c r="D22" s="2">
+        <v>7443614.8551777089</v>
+      </c>
+      <c r="E22" s="2">
+        <v>129.14482229226269</v>
+      </c>
+      <c r="F22" s="2">
+        <v>65700</v>
+      </c>
+      <c r="G22" s="2">
+        <v>14314101.399903489</v>
+      </c>
+      <c r="H22" s="2">
+        <v>774457.55949042097</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1494880557.9911611</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23">
-        <v>258</v>
-      </c>
-      <c r="D23">
-        <v>8762210.5594477691</v>
-      </c>
-      <c r="E23">
-        <v>467.84055223455653</v>
-      </c>
-      <c r="F23">
-        <v>141255</v>
-      </c>
-      <c r="G23">
-        <v>35516602.053806938</v>
-      </c>
-      <c r="H23">
-        <v>1752000.059048271</v>
-      </c>
-      <c r="I23">
-        <v>3783340917.395575</v>
+        <v>150</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7436200.6096474333</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1159.390352567716</v>
+      </c>
+      <c r="F23" s="2">
+        <v>82125</v>
+      </c>
+      <c r="G23" s="2">
+        <v>17877228.04486867</v>
+      </c>
+      <c r="H23" s="2">
+        <v>967774.25265816646</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1866751574.45135</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C24">
-        <v>98</v>
-      </c>
-      <c r="D24">
-        <v>3493138.6378434771</v>
-      </c>
-      <c r="E24">
-        <v>186.16215652413669</v>
-      </c>
-      <c r="F24">
-        <v>53655</v>
-      </c>
-      <c r="G24">
-        <v>6294313.0988704991</v>
-      </c>
-      <c r="H24">
-        <v>502462.22640391078</v>
-      </c>
-      <c r="I24">
-        <v>572906807.04953015</v>
+        <v>60</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7404014.8551777089</v>
+      </c>
+      <c r="E24" s="2">
+        <v>148.34482229221609</v>
+      </c>
+      <c r="F24" s="2">
+        <v>32850</v>
+      </c>
+      <c r="G24" s="2">
+        <v>7123937.89485039</v>
+      </c>
+      <c r="H24" s="2">
+        <v>386587.73890270502</v>
+      </c>
+      <c r="I24" s="2">
+        <v>743463993.28129494</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25">
-        <v>72</v>
-      </c>
-      <c r="D25">
-        <v>11348630.69624689</v>
-      </c>
-      <c r="E25">
-        <v>844.5037531144917</v>
-      </c>
-      <c r="F25">
-        <v>39420</v>
-      </c>
-      <c r="G25">
-        <v>12506947.843350001</v>
-      </c>
-      <c r="H25">
-        <v>530479.38947731967</v>
-      </c>
-      <c r="I25">
-        <v>1367472097.1117859</v>
+        <v>110</v>
+      </c>
+      <c r="D25" s="2">
+        <v>7398449.2389865546</v>
+      </c>
+      <c r="E25" s="2">
+        <v>606.76101344684139</v>
+      </c>
+      <c r="F25" s="2">
+        <v>60225.000000000007</v>
+      </c>
+      <c r="G25" s="2">
+        <v>13052053.411498491</v>
+      </c>
+      <c r="H25" s="2">
+        <v>708579.32661884418</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1361996687.8888309</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>280</v>
-      </c>
-      <c r="D26">
-        <v>2986760.7112444248</v>
-      </c>
-      <c r="E26">
-        <v>951.28875557659194</v>
-      </c>
-      <c r="F26">
-        <v>153300</v>
-      </c>
-      <c r="G26">
-        <v>16007867.56065746</v>
-      </c>
-      <c r="H26">
-        <v>1370592.252588887</v>
-      </c>
-      <c r="I26">
-        <v>1399606451.0225101</v>
+        <v>50</v>
+      </c>
+      <c r="D26" s="2">
+        <v>6984319.2231516736</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1770698.3768483279</v>
+      </c>
+      <c r="F26" s="2">
+        <v>27375</v>
+      </c>
+      <c r="G26" s="2">
+        <v>5701896.277846233</v>
+      </c>
+      <c r="H26" s="2">
+        <v>317537.14748507109</v>
+      </c>
+      <c r="I26" s="2">
+        <v>591367604.70376456</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27">
-        <v>122</v>
-      </c>
-      <c r="D27">
-        <v>4403852.6972184302</v>
-      </c>
-      <c r="E27">
-        <v>1107.3027815705859</v>
-      </c>
-      <c r="F27">
-        <v>66795</v>
-      </c>
-      <c r="G27">
-        <v>9384315.3618732765</v>
-      </c>
-      <c r="H27">
-        <v>670465.72390924534</v>
-      </c>
-      <c r="I27">
-        <v>899163617.78722501</v>
+        <v>99</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6980939.8513059132</v>
+      </c>
+      <c r="E27" s="2">
+        <v>602.54869408812374</v>
+      </c>
+      <c r="F27" s="2">
+        <v>54202.5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>11170796.93660694</v>
+      </c>
+      <c r="H27" s="2">
+        <v>626338.01521842764</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1156623057.9455271</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>58</v>
-      </c>
-      <c r="D28">
-        <v>547800</v>
-      </c>
-      <c r="E28">
-        <v>1224.000000000116</v>
-      </c>
-      <c r="F28">
-        <v>31755</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>177429.5961895315</v>
-      </c>
-      <c r="I28">
-        <v>53178542.857142851</v>
+        <v>164</v>
+      </c>
+      <c r="D28" s="2">
+        <v>6883750.7967955098</v>
+      </c>
+      <c r="E28" s="2">
+        <v>754.80320449220017</v>
+      </c>
+      <c r="F28" s="2">
+        <v>89790</v>
+      </c>
+      <c r="G28" s="2">
+        <v>18283038.004030999</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1033078.281308594</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1889349127.5045011</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>70</v>
-      </c>
-      <c r="D29">
-        <v>861005.12025265419</v>
-      </c>
-      <c r="E29">
-        <v>834.87974734592717</v>
-      </c>
-      <c r="F29">
-        <v>38325</v>
-      </c>
-      <c r="G29">
-        <v>1928142.995920788</v>
-      </c>
-      <c r="H29">
-        <v>241276.68898325411</v>
-      </c>
-      <c r="I29">
-        <v>100870571.7615464</v>
+        <v>129</v>
+      </c>
+      <c r="D29" s="2">
+        <v>6690217.2153253537</v>
+      </c>
+      <c r="E29" s="2">
+        <v>214.78467464866119</v>
+      </c>
+      <c r="F29" s="2">
+        <v>70627.5</v>
+      </c>
+      <c r="G29" s="2">
+        <v>14033183.840074951</v>
+      </c>
+      <c r="H29" s="2">
+        <v>805471.41095410753</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1444347128.3823099</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C30">
-        <v>64</v>
-      </c>
-      <c r="D30">
-        <v>1502334.796195785</v>
-      </c>
-      <c r="E30">
-        <v>458.80380421504378</v>
-      </c>
-      <c r="F30">
-        <v>35040</v>
-      </c>
-      <c r="G30">
-        <v>2334890.3945825379</v>
-      </c>
-      <c r="H30">
-        <v>257074.71455862789</v>
-      </c>
-      <c r="I30">
-        <v>160914028.71636969</v>
+        <v>100</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6391950.9238925232</v>
+      </c>
+      <c r="E30" s="2">
+        <v>986.67610747762956</v>
+      </c>
+      <c r="F30" s="2">
+        <v>54750</v>
+      </c>
+      <c r="G30" s="2">
+        <v>10462803.18392645</v>
+      </c>
+      <c r="H30" s="2">
+        <v>615673.89451481169</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1069738361.668569</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
       <c r="C31">
-        <v>184</v>
-      </c>
-      <c r="D31">
-        <v>911149.43519020022</v>
-      </c>
-      <c r="E31">
-        <v>485.76480979984632</v>
-      </c>
-      <c r="F31">
-        <v>100740</v>
-      </c>
-      <c r="G31">
-        <v>5196807.2408387614</v>
-      </c>
-      <c r="H31">
-        <v>643960.47461814992</v>
-      </c>
-      <c r="I31">
-        <v>280581653.26249492</v>
+        <v>146</v>
+      </c>
+      <c r="D31" s="2">
+        <v>6347099.2271252917</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1150.372874710243</v>
+      </c>
+      <c r="F31" s="2">
+        <v>79935</v>
+      </c>
+      <c r="G31" s="2">
+        <v>15184445.99647228</v>
+      </c>
+      <c r="H31" s="2">
+        <v>896936.44947195717</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1550860834.279515</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C32">
-        <v>50</v>
-      </c>
-      <c r="D32">
-        <v>391641.43599484762</v>
-      </c>
-      <c r="E32">
-        <v>384652.9640051524</v>
-      </c>
-      <c r="F32">
-        <v>27375</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>142006.85963762389</v>
-      </c>
-      <c r="I32">
-        <v>34278066.918636657</v>
+        <v>100</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6191910.6991169583</v>
+      </c>
+      <c r="E32" s="2">
+        <v>569.30088304216042</v>
+      </c>
+      <c r="F32" s="2">
+        <v>54750</v>
+      </c>
+      <c r="G32" s="2">
+        <v>10183986.26155494</v>
+      </c>
+      <c r="H32" s="2">
+        <v>609676.31598410825</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1036257182.954372</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C33">
-        <v>60</v>
-      </c>
-      <c r="D33">
-        <v>7404014.8551777089</v>
-      </c>
-      <c r="E33">
-        <v>148.34482229221609</v>
-      </c>
-      <c r="F33">
-        <v>32850</v>
-      </c>
-      <c r="G33">
-        <v>7123937.89485039</v>
-      </c>
-      <c r="H33">
-        <v>386587.73890270502</v>
-      </c>
-      <c r="I33">
-        <v>743463993.28129494</v>
+        <v>56</v>
+      </c>
+      <c r="D33" s="2">
+        <v>5949456.2503217086</v>
+      </c>
+      <c r="E33" s="2">
+        <v>6104812.5496782931</v>
+      </c>
+      <c r="F33" s="2">
+        <v>30660</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5736761.769879885</v>
+      </c>
+      <c r="H33" s="2">
+        <v>342150.07611409441</v>
+      </c>
+      <c r="I33" s="2">
+        <v>584354358.36207259</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
       </c>
       <c r="C34">
-        <v>228</v>
-      </c>
-      <c r="D34">
-        <v>12525261.940798949</v>
-      </c>
-      <c r="E34">
-        <v>146.05920105613771</v>
-      </c>
-      <c r="F34">
-        <v>124830</v>
-      </c>
-      <c r="G34">
-        <v>43344051.468173511</v>
-      </c>
-      <c r="H34">
-        <v>1733397.890723855</v>
-      </c>
-      <c r="I34">
-        <v>4779284700.1820173</v>
+        <v>94</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5927356.2503217086</v>
+      </c>
+      <c r="E34" s="2">
+        <v>826.14967829175293</v>
+      </c>
+      <c r="F34" s="2">
+        <v>51465</v>
+      </c>
+      <c r="G34" s="2">
+        <v>9226383.7775600553</v>
+      </c>
+      <c r="H34" s="2">
+        <v>565459.70133278903</v>
+      </c>
+      <c r="I34" s="2">
+        <v>932465382.4887172</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
       </c>
       <c r="C35">
-        <v>195</v>
-      </c>
-      <c r="D35">
-        <v>894330.07009633153</v>
-      </c>
-      <c r="E35">
-        <v>706.72990366863087</v>
-      </c>
-      <c r="F35">
-        <v>106762.5</v>
-      </c>
-      <c r="G35">
-        <v>5461804.8397792429</v>
-      </c>
-      <c r="H35">
-        <v>679036.24204749183</v>
-      </c>
-      <c r="I35">
-        <v>291870032.5192517</v>
+        <v>84</v>
+      </c>
+      <c r="D35" s="2">
+        <v>5719877.6882969569</v>
+      </c>
+      <c r="E35" s="2">
+        <v>186.31170304282571</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45990</v>
+      </c>
+      <c r="G35" s="2">
+        <v>8001927.2634362681</v>
+      </c>
+      <c r="H35" s="2">
+        <v>499814.73958020261</v>
+      </c>
+      <c r="I35" s="2">
+        <v>804095610.23179233</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C36">
-        <v>148</v>
-      </c>
-      <c r="D36">
-        <v>30117.688423815522</v>
-      </c>
-      <c r="E36">
-        <v>525.51157618447905</v>
-      </c>
-      <c r="F36">
-        <v>81030</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>235985.9930561255</v>
-      </c>
-      <c r="I36">
-        <v>7465842.8192989212</v>
+        <v>200</v>
+      </c>
+      <c r="D36" s="2">
+        <v>5650128.5019387407</v>
+      </c>
+      <c r="E36" s="2">
+        <v>988.29806126188487</v>
+      </c>
+      <c r="F36" s="2">
+        <v>109500</v>
+      </c>
+      <c r="G36" s="2">
+        <v>18857897.93855482</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1185576.3145589081</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1891180045.8566461</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C37">
-        <v>340</v>
-      </c>
-      <c r="D37">
-        <v>3334274.5967586539</v>
-      </c>
-      <c r="E37">
-        <v>727.00324134598486</v>
-      </c>
-      <c r="F37">
-        <v>186150</v>
-      </c>
-      <c r="G37">
-        <v>21084759.934406001</v>
-      </c>
-      <c r="H37">
-        <v>1719309.510413788</v>
-      </c>
-      <c r="I37">
-        <v>1897255031.2895751</v>
+        <v>154</v>
+      </c>
+      <c r="D37" s="2">
+        <v>5576670.1717180423</v>
+      </c>
+      <c r="E37" s="2">
+        <v>392.22828195756301</v>
+      </c>
+      <c r="F37" s="2">
+        <v>84315</v>
+      </c>
+      <c r="G37" s="2">
+        <v>14362861.672150601</v>
+      </c>
+      <c r="H37" s="2">
+        <v>909245.23329910601</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1437269172.1853991</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
       </c>
       <c r="C38">
-        <v>158</v>
-      </c>
-      <c r="D38">
-        <v>4662828.0015425337</v>
-      </c>
-      <c r="E38">
-        <v>45.598457466810942</v>
-      </c>
-      <c r="F38">
-        <v>86505</v>
-      </c>
-      <c r="G38">
-        <v>12723610.711545721</v>
-      </c>
-      <c r="H38">
-        <v>883426.84216191992</v>
-      </c>
-      <c r="I38">
-        <v>1232956295.817363</v>
+        <v>68</v>
+      </c>
+      <c r="D38" s="2">
+        <v>5450575.745019</v>
+      </c>
+      <c r="E38" s="2">
+        <v>83.454981000162661</v>
+      </c>
+      <c r="F38" s="2">
+        <v>37230</v>
+      </c>
+      <c r="G38" s="2">
+        <v>6222530.1427046042</v>
+      </c>
+      <c r="H38" s="2">
+        <v>398688.36902392493</v>
+      </c>
+      <c r="I38" s="2">
+        <v>620286892.7215848</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C39">
-        <v>158</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="D39" s="2">
+        <v>5323710.2121204063</v>
+      </c>
+      <c r="E39" s="2">
+        <v>545.78787959413603</v>
+      </c>
+      <c r="F39" s="2">
+        <v>64057.499999999993</v>
+      </c>
+      <c r="G39" s="2">
+        <v>10499581.54084944</v>
+      </c>
+      <c r="H39" s="2">
+        <v>681066.60095862672</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1042421484.590759</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
       </c>
       <c r="C40">
-        <v>115</v>
-      </c>
-      <c r="D40">
-        <v>13162300.670007249</v>
-      </c>
-      <c r="E40">
-        <v>230.5299927499145</v>
-      </c>
-      <c r="F40">
-        <v>62962.499999999993</v>
-      </c>
-      <c r="G40">
-        <v>22883131.271586869</v>
-      </c>
-      <c r="H40">
-        <v>888256.48574139166</v>
-      </c>
-      <c r="I40">
-        <v>2533208896.7239499</v>
+        <v>175</v>
+      </c>
+      <c r="D40" s="2">
+        <v>5281800.8120658714</v>
+      </c>
+      <c r="E40" s="2">
+        <v>320.78793413005769</v>
+      </c>
+      <c r="F40" s="2">
+        <v>95812.5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>15602262.976619929</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1016236.804479918</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1546900226.7017219</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
       </c>
       <c r="C41">
-        <v>117</v>
-      </c>
-      <c r="D41">
-        <v>5323710.2121204063</v>
-      </c>
-      <c r="E41">
-        <v>545.78787959413603</v>
-      </c>
-      <c r="F41">
-        <v>64057.499999999993</v>
-      </c>
-      <c r="G41">
-        <v>10499581.54084944</v>
-      </c>
-      <c r="H41">
-        <v>681066.60095862672</v>
-      </c>
-      <c r="I41">
-        <v>1042421484.590759</v>
+        <v>69</v>
+      </c>
+      <c r="D41" s="2">
+        <v>5255779.0258600116</v>
+      </c>
+      <c r="E41" s="2">
+        <v>806.57413998921402</v>
+      </c>
+      <c r="F41" s="2">
+        <v>37777.5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>6126747.9063826036</v>
+      </c>
+      <c r="H41" s="2">
+        <v>400085.44650174701</v>
+      </c>
+      <c r="I41" s="2">
+        <v>606918405.63216269</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C42">
-        <v>116</v>
-      </c>
-      <c r="D42">
-        <v>4354143.7580961306</v>
-      </c>
-      <c r="E42">
-        <v>1021.041903869715</v>
-      </c>
-      <c r="F42">
-        <v>63509.999999999993</v>
-      </c>
-      <c r="G42">
-        <v>8842422.918631373</v>
-      </c>
-      <c r="H42">
-        <v>635313.47749955254</v>
-      </c>
-      <c r="I42">
-        <v>845291535.42674124</v>
+        <v>151</v>
+      </c>
+      <c r="D42" s="2">
+        <v>5208630.465558935</v>
+      </c>
+      <c r="E42" s="2">
+        <v>713.53444106644019</v>
+      </c>
+      <c r="F42" s="2">
+        <v>82672.5</v>
+      </c>
+      <c r="G42" s="2">
+        <v>13308580.20431168</v>
+      </c>
+      <c r="H42" s="2">
+        <v>873148.50644076453</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1316267867.144279</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
       </c>
       <c r="C43">
-        <v>172</v>
-      </c>
-      <c r="D43">
-        <v>1960390.0383013401</v>
-      </c>
-      <c r="E43">
-        <v>774.76169866020791</v>
-      </c>
-      <c r="F43">
-        <v>94170</v>
-      </c>
-      <c r="G43">
-        <v>7373061.8638594151</v>
-      </c>
-      <c r="H43">
-        <v>745038.32436682563</v>
-      </c>
-      <c r="I43">
-        <v>564312885.74725342</v>
+        <v>169</v>
+      </c>
+      <c r="D43" s="2">
+        <v>5110335.727376543</v>
+      </c>
+      <c r="E43" s="2">
+        <v>694.672623458202</v>
+      </c>
+      <c r="F43" s="2">
+        <v>92527.5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>14663517.87053524</v>
+      </c>
+      <c r="H43" s="2">
+        <v>971580.77094038855</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1445372877.1686809</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C44">
-        <v>172</v>
-      </c>
-      <c r="D44">
-        <v>3164909.2790883491</v>
-      </c>
-      <c r="E44">
-        <v>277.92091165180318</v>
-      </c>
-      <c r="F44">
-        <v>94170</v>
-      </c>
-      <c r="G44">
-        <v>10260370.40865151</v>
-      </c>
-      <c r="H44">
-        <v>856446.32992812595</v>
-      </c>
-      <c r="I44">
-        <v>911029622.19557464</v>
+        <v>94.8</v>
+      </c>
+      <c r="D44" s="2">
+        <v>5062744.5960676223</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1044.2039323790229</v>
+      </c>
+      <c r="F44" s="2">
+        <v>51903</v>
+      </c>
+      <c r="G44" s="2">
+        <v>8162596.9581641741</v>
+      </c>
+      <c r="H44" s="2">
+        <v>543456.67896498309</v>
+      </c>
+      <c r="I44" s="2">
+        <v>803229312.77102637</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
       </c>
       <c r="C45">
-        <v>146</v>
-      </c>
-      <c r="D45">
-        <v>6347099.2271252917</v>
-      </c>
-      <c r="E45">
-        <v>1150.372874710243</v>
-      </c>
-      <c r="F45">
-        <v>79935</v>
-      </c>
-      <c r="G45">
-        <v>15184445.99647228</v>
-      </c>
-      <c r="H45">
-        <v>896936.44947195717</v>
-      </c>
-      <c r="I45">
-        <v>1550860834.279515</v>
+        <v>55.6</v>
+      </c>
+      <c r="D45" s="2">
+        <v>5024139.9039771762</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2618784.8960228232</v>
+      </c>
+      <c r="F45" s="2">
+        <v>30441</v>
+      </c>
+      <c r="G45" s="2">
+        <v>4852360.4784736009</v>
+      </c>
+      <c r="H45" s="2">
+        <v>320334.14455315022</v>
+      </c>
+      <c r="I45" s="2">
+        <v>478899445.00704229</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
         <v>43</v>
       </c>
       <c r="C46">
-        <v>340</v>
-      </c>
-      <c r="D46">
-        <v>1165060.370570672</v>
-      </c>
-      <c r="E46">
-        <v>658.02942932787118</v>
-      </c>
-      <c r="F46">
-        <v>186150</v>
-      </c>
-      <c r="G46">
-        <v>10805984.017522911</v>
-      </c>
-      <c r="H46">
-        <v>1272468.250731159</v>
-      </c>
-      <c r="I46">
-        <v>662948553.37142646</v>
+        <v>80</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4918204.4290421624</v>
+      </c>
+      <c r="E46" s="2">
+        <v>29.17095783888362</v>
+      </c>
+      <c r="F46" s="2">
+        <v>43800</v>
+      </c>
+      <c r="G46" s="2">
+        <v>6727061.6854211977</v>
+      </c>
+      <c r="H46" s="2">
+        <v>454593.31017943937</v>
+      </c>
+      <c r="I46" s="2">
+        <v>658472565.23014259</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
       </c>
       <c r="C47">
-        <v>64</v>
-      </c>
-      <c r="D47">
-        <v>1395458.0831575631</v>
-      </c>
-      <c r="E47">
-        <v>84.316842437023297</v>
-      </c>
-      <c r="F47">
-        <v>35040</v>
-      </c>
-      <c r="G47">
-        <v>2239546.3297627382</v>
-      </c>
-      <c r="H47">
-        <v>251815.59840622701</v>
-      </c>
-      <c r="I47">
-        <v>149464825.25189599</v>
+        <v>158</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4662828.0015425337</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45.598457466810942</v>
+      </c>
+      <c r="F47" s="2">
+        <v>86505</v>
+      </c>
+      <c r="G47" s="2">
+        <v>12723610.711545721</v>
+      </c>
+      <c r="H47" s="2">
+        <v>883426.84216191992</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1232956295.817363</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
       </c>
       <c r="C48">
-        <v>101</v>
-      </c>
-      <c r="D48">
-        <v>4120260.9693726562</v>
-      </c>
-      <c r="E48">
-        <v>1249.4306273441759</v>
-      </c>
-      <c r="F48">
-        <v>55297.5</v>
-      </c>
-      <c r="G48">
-        <v>7369806.6513759447</v>
-      </c>
-      <c r="H48">
-        <v>544046.53915744671</v>
-      </c>
-      <c r="I48">
-        <v>696455323.32725632</v>
+        <v>366</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4526401.4697808344</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1131.3302191663529</v>
+      </c>
+      <c r="F48" s="2">
+        <v>200385</v>
+      </c>
+      <c r="G48" s="2">
+        <v>28778051.739645738</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2028132.547214729</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2772555429.57061</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
       </c>
       <c r="C49">
-        <v>91</v>
-      </c>
-      <c r="D49">
-        <v>1789499.8383774629</v>
-      </c>
-      <c r="E49">
-        <v>573.7616225364618</v>
-      </c>
-      <c r="F49">
-        <v>49822.5</v>
-      </c>
-      <c r="G49">
-        <v>3684122.7396899122</v>
-      </c>
-      <c r="H49">
-        <v>384051.37475607381</v>
-      </c>
-      <c r="I49">
-        <v>272533926.53779513</v>
+        <v>122</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4403852.6972184302</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1107.3027815705859</v>
+      </c>
+      <c r="F49" s="2">
+        <v>66795</v>
+      </c>
+      <c r="G49" s="2">
+        <v>9384315.3618732765</v>
+      </c>
+      <c r="H49" s="2">
+        <v>670465.72390924534</v>
+      </c>
+      <c r="I49" s="2">
+        <v>899163617.78722501</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C50">
-        <v>76</v>
-      </c>
-      <c r="D50">
-        <v>15649559.239730271</v>
-      </c>
-      <c r="E50">
-        <v>178.36026973091069</v>
-      </c>
-      <c r="F50">
-        <v>41610</v>
-      </c>
-      <c r="G50">
-        <v>17757236.442684881</v>
-      </c>
-      <c r="H50">
-        <v>620542.14260447421</v>
-      </c>
-      <c r="I50">
-        <v>1990475953.540632</v>
+        <v>116</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4354143.7580961306</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1021.041903869715</v>
+      </c>
+      <c r="F50" s="2">
+        <v>63509.999999999993</v>
+      </c>
+      <c r="G50" s="2">
+        <v>8842422.918631373</v>
+      </c>
+      <c r="H50" s="2">
+        <v>635313.47749955254</v>
+      </c>
+      <c r="I50" s="2">
+        <v>845291535.42674124</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
       </c>
       <c r="C51">
-        <v>56</v>
-      </c>
-      <c r="D51">
-        <v>5949456.2503217086</v>
-      </c>
-      <c r="E51">
-        <v>6104812.5496782931</v>
-      </c>
-      <c r="F51">
-        <v>30660</v>
-      </c>
-      <c r="G51">
-        <v>5736761.769879885</v>
-      </c>
-      <c r="H51">
-        <v>342150.07611409441</v>
-      </c>
-      <c r="I51">
-        <v>584354358.36207259</v>
+        <v>129</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4347598.4058952229</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1182.394104778534</v>
+      </c>
+      <c r="F51" s="2">
+        <v>70627.5</v>
+      </c>
+      <c r="G51" s="2">
+        <v>9821630.2399178613</v>
+      </c>
+      <c r="H51" s="2">
+        <v>706192.48173229909</v>
+      </c>
+      <c r="I51" s="2">
+        <v>938611043.38458121</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C52">
-        <v>80</v>
-      </c>
-      <c r="D52">
-        <v>4918204.4290421624</v>
-      </c>
-      <c r="E52">
-        <v>29.17095783888362</v>
-      </c>
-      <c r="F52">
-        <v>43800</v>
-      </c>
-      <c r="G52">
-        <v>6727061.6854211977</v>
-      </c>
-      <c r="H52">
-        <v>454593.31017943937</v>
-      </c>
-      <c r="I52">
-        <v>658472565.23014259</v>
+        <v>102</v>
+      </c>
+      <c r="D52" s="2">
+        <v>4295235.71890892</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1196.281091080979</v>
+      </c>
+      <c r="F52" s="2">
+        <v>55845</v>
+      </c>
+      <c r="G52" s="2">
+        <v>7691505.3775377925</v>
+      </c>
+      <c r="H52" s="2">
+        <v>556349.94128128013</v>
+      </c>
+      <c r="I52" s="2">
+        <v>733219211.97675133</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
       </c>
       <c r="C53">
-        <v>110</v>
-      </c>
-      <c r="D53">
-        <v>3854193.5016094618</v>
-      </c>
-      <c r="E53">
-        <v>465.69839053903712</v>
-      </c>
-      <c r="F53">
-        <v>60225.000000000007</v>
-      </c>
-      <c r="G53">
-        <v>7618575.1210101489</v>
-      </c>
-      <c r="H53">
-        <v>580782.9162358786</v>
-      </c>
-      <c r="I53">
-        <v>709528193.02051747</v>
+        <v>109</v>
+      </c>
+      <c r="D53" s="2">
+        <v>4276329.1684307726</v>
+      </c>
+      <c r="E53" s="2">
+        <v>950.83156922832131</v>
+      </c>
+      <c r="F53" s="2">
+        <v>59677.500000000007</v>
+      </c>
+      <c r="G53" s="2">
+        <v>8190615.4268172681</v>
+      </c>
+      <c r="H53" s="2">
+        <v>593741.039704505</v>
+      </c>
+      <c r="I53" s="2">
+        <v>780087188.50118887</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C54">
-        <v>493</v>
-      </c>
-      <c r="D54">
-        <v>659833.50271353743</v>
-      </c>
-      <c r="E54">
-        <v>272.09728646231821</v>
-      </c>
-      <c r="F54">
-        <v>269917.5</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>1583146.7239448701</v>
-      </c>
-      <c r="I54">
-        <v>544415729.24121082</v>
+        <v>60</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4276329.1684307726</v>
+      </c>
+      <c r="E54" s="2">
+        <v>950.83156922832131</v>
+      </c>
+      <c r="F54" s="2">
+        <v>32850</v>
+      </c>
+      <c r="G54" s="2">
+        <v>4508595.6477893218</v>
+      </c>
+      <c r="H54" s="2">
+        <v>326829.93011257157</v>
+      </c>
+      <c r="I54" s="2">
+        <v>429405791.83551681</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
       </c>
       <c r="C55">
-        <v>50</v>
-      </c>
-      <c r="D55">
-        <v>6984319.2231516736</v>
-      </c>
-      <c r="E55">
-        <v>1770698.3768483279</v>
-      </c>
-      <c r="F55">
-        <v>27375</v>
-      </c>
-      <c r="G55">
-        <v>5701896.277846233</v>
-      </c>
-      <c r="H55">
-        <v>317537.14748507109</v>
-      </c>
-      <c r="I55">
-        <v>591367604.70376456</v>
+        <v>101</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4120260.9693726562</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1249.4306273441759</v>
+      </c>
+      <c r="F55" s="2">
+        <v>55297.5</v>
+      </c>
+      <c r="G55" s="2">
+        <v>7369806.6513759447</v>
+      </c>
+      <c r="H55" s="2">
+        <v>544046.53915744671</v>
+      </c>
+      <c r="I55" s="2">
+        <v>696455323.32725632</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
       </c>
       <c r="C56">
-        <v>170</v>
-      </c>
-      <c r="D56">
-        <v>1448463.406732403</v>
-      </c>
-      <c r="E56">
-        <v>704.59326759702526</v>
-      </c>
-      <c r="F56">
-        <v>93075</v>
-      </c>
-      <c r="G56">
-        <v>6074445.8310275786</v>
-      </c>
-      <c r="H56">
-        <v>675899.20783068985</v>
-      </c>
-      <c r="I56">
-        <v>412104481.01623958</v>
+        <v>82.6</v>
+      </c>
+      <c r="D56" s="2">
+        <v>4069806.992417614</v>
+      </c>
+      <c r="E56" s="2">
+        <v>631.40758238639683</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45223.5</v>
+      </c>
+      <c r="G56" s="2">
+        <v>5969074.0135118496</v>
+      </c>
+      <c r="H56" s="2">
+        <v>443288.85508745181</v>
+      </c>
+      <c r="I56" s="2">
+        <v>562597781.36756086</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="B57" t="s">
         <v>32</v>
       </c>
       <c r="C57">
-        <v>123</v>
-      </c>
-      <c r="D57">
-        <v>3936771.859949687</v>
-      </c>
-      <c r="E57">
-        <v>879.34005031408742</v>
-      </c>
-      <c r="F57">
-        <v>67342.5</v>
-      </c>
-      <c r="G57">
-        <v>8660542.1679909732</v>
-      </c>
-      <c r="H57">
-        <v>653557.06402897474</v>
-      </c>
-      <c r="I57">
-        <v>810384078.52012789</v>
+        <v>221</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3945451.2814423228</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1137.5185576775109</v>
+      </c>
+      <c r="F57" s="2">
+        <v>120997.5</v>
+      </c>
+      <c r="G57" s="2">
+        <v>15587581.42830421</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1175053.51642876</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1459270555.340868</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C58">
-        <v>150</v>
-      </c>
-      <c r="D58">
-        <v>7436200.6096474333</v>
-      </c>
-      <c r="E58">
-        <v>1159.390352567716</v>
-      </c>
-      <c r="F58">
-        <v>82125</v>
-      </c>
-      <c r="G58">
-        <v>17877228.04486867</v>
-      </c>
-      <c r="H58">
-        <v>967774.25265816646</v>
-      </c>
-      <c r="I58">
-        <v>1866751574.45135</v>
+        <v>123</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3936771.859949687</v>
+      </c>
+      <c r="E58" s="2">
+        <v>879.34005031408742</v>
+      </c>
+      <c r="F58" s="2">
+        <v>67342.5</v>
+      </c>
+      <c r="G58" s="2">
+        <v>8660542.1679909732</v>
+      </c>
+      <c r="H58" s="2">
+        <v>653557.06402897474</v>
+      </c>
+      <c r="I58" s="2">
+        <v>810384078.52012789</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
       </c>
       <c r="C59">
-        <v>218</v>
-      </c>
-      <c r="D59">
-        <v>1526565.418097133</v>
-      </c>
-      <c r="E59">
-        <v>487.38190286746249</v>
-      </c>
-      <c r="F59">
-        <v>119355</v>
-      </c>
-      <c r="G59">
-        <v>8026841.8648902038</v>
-      </c>
-      <c r="H59">
-        <v>879606.38163159066</v>
-      </c>
-      <c r="I59">
-        <v>556954097.54111242</v>
+        <v>110</v>
+      </c>
+      <c r="D59" s="2">
+        <v>3854193.5016094618</v>
+      </c>
+      <c r="E59" s="2">
+        <v>465.69839053903712</v>
+      </c>
+      <c r="F59" s="2">
+        <v>60225.000000000007</v>
+      </c>
+      <c r="G59" s="2">
+        <v>7618575.1210101489</v>
+      </c>
+      <c r="H59" s="2">
+        <v>580782.9162358786</v>
+      </c>
+      <c r="I59" s="2">
+        <v>709528193.02051747</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
       </c>
       <c r="C60">
-        <v>109</v>
-      </c>
-      <c r="D60">
-        <v>4276329.1684307726</v>
-      </c>
-      <c r="E60">
-        <v>950.83156922832131</v>
-      </c>
-      <c r="F60">
-        <v>59677.500000000007</v>
-      </c>
-      <c r="G60">
-        <v>8190615.4268172681</v>
-      </c>
-      <c r="H60">
-        <v>593741.039704505</v>
-      </c>
-      <c r="I60">
-        <v>780087188.50118887</v>
+        <v>185</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3784883.7598933131</v>
+      </c>
+      <c r="E60" s="2">
+        <v>828.24010668508708</v>
+      </c>
+      <c r="F60" s="2">
+        <v>101287.5</v>
+      </c>
+      <c r="G60" s="2">
+        <v>12634401.554070439</v>
+      </c>
+      <c r="H60" s="2">
+        <v>971486.19000056363</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1171843790.5685151</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C61">
-        <v>245</v>
-      </c>
-      <c r="D61">
-        <v>257340.43603823619</v>
-      </c>
-      <c r="E61">
-        <v>573.16396176384296</v>
-      </c>
-      <c r="F61">
-        <v>134137.5</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>620447.69739856618</v>
-      </c>
-      <c r="I61">
-        <v>105526220.41827729</v>
+        <v>166</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3749009.0338742561</v>
+      </c>
+      <c r="E61" s="2">
+        <v>952.56612574495375</v>
+      </c>
+      <c r="F61" s="2">
+        <v>90885</v>
+      </c>
+      <c r="G61" s="2">
+        <v>11253832.03637198</v>
+      </c>
+      <c r="H61" s="2">
+        <v>869235.28271553176</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1041527497.017845</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
       </c>
       <c r="C62">
-        <v>102</v>
-      </c>
-      <c r="D62">
-        <v>4295235.71890892</v>
-      </c>
-      <c r="E62">
-        <v>1196.281091080979</v>
-      </c>
-      <c r="F62">
-        <v>55845</v>
-      </c>
-      <c r="G62">
-        <v>7691505.3775377925</v>
-      </c>
-      <c r="H62">
-        <v>556349.94128128013</v>
-      </c>
-      <c r="I62">
-        <v>733219211.97675133</v>
+        <v>145</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3710180.905924153</v>
+      </c>
+      <c r="E62" s="2">
+        <v>199.89407584792929</v>
+      </c>
+      <c r="F62" s="2">
+        <v>79387.5</v>
+      </c>
+      <c r="G62" s="2">
+        <v>9751618.693251932</v>
+      </c>
+      <c r="H62" s="2">
+        <v>756912.84304532153</v>
+      </c>
+      <c r="I62" s="2">
+        <v>900337178.5965035</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
       </c>
       <c r="C63">
-        <v>82</v>
-      </c>
-      <c r="D63">
-        <v>3490024.8300394681</v>
-      </c>
-      <c r="E63">
-        <v>746.36996053345501</v>
-      </c>
-      <c r="F63">
-        <v>44895</v>
-      </c>
-      <c r="G63">
-        <v>5263141.6208705287</v>
-      </c>
-      <c r="H63">
-        <v>420317.02446142241</v>
-      </c>
-      <c r="I63">
-        <v>478947286.10087711</v>
+        <v>161</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3664836.0801797691</v>
+      </c>
+      <c r="E63" s="2">
+        <v>856.7198202314321</v>
+      </c>
+      <c r="F63" s="2">
+        <v>88147.5</v>
+      </c>
+      <c r="G63" s="2">
+        <v>10725983.36525929</v>
+      </c>
+      <c r="H63" s="2">
+        <v>837358.00562608964</v>
+      </c>
+      <c r="I63" s="2">
+        <v>987475166.59283721</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C64">
         <v>114</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
+      <c r="D64" s="2">
+        <v>3570013.1084175259</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1196.4915824746711</v>
+      </c>
+      <c r="F64" s="2">
+        <v>62414.999999999993</v>
+      </c>
+      <c r="G64" s="2">
+        <v>7444167.9309786176</v>
+      </c>
+      <c r="H64" s="2">
+        <v>588298.1727717499</v>
+      </c>
+      <c r="I64" s="2">
+        <v>681118183.85935867</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C65">
-        <v>148</v>
-      </c>
-      <c r="D65">
-        <v>3408576.493262846</v>
-      </c>
-      <c r="E65">
-        <v>479.50673715490848</v>
-      </c>
-      <c r="F65">
-        <v>81030</v>
-      </c>
-      <c r="G65">
-        <v>9331305.322753422</v>
-      </c>
-      <c r="H65">
-        <v>753315.25569702289</v>
-      </c>
-      <c r="I65">
-        <v>844264678.74272346</v>
+        <v>208</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3513743.284244189</v>
+      </c>
+      <c r="E65" s="2">
+        <v>10.31575581175275</v>
+      </c>
+      <c r="F65" s="2">
+        <v>113880</v>
+      </c>
+      <c r="G65" s="2">
+        <v>13419063.92243132</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1068317.035337205</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1223135085.9339769</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
         <v>32</v>
       </c>
       <c r="C66">
-        <v>453</v>
-      </c>
-      <c r="D66">
-        <v>523954.18142389512</v>
-      </c>
-      <c r="E66">
-        <v>810.61857610498555</v>
-      </c>
-      <c r="F66">
-        <v>248017.5</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>1369934.641192273</v>
-      </c>
-      <c r="I66">
-        <v>397250046.67611051</v>
+        <v>240</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3513743.284244189</v>
+      </c>
+      <c r="E66" s="2">
+        <v>10.31575581175275</v>
+      </c>
+      <c r="F66" s="2">
+        <v>131400</v>
+      </c>
+      <c r="G66" s="2">
+        <v>15483535.295113061</v>
+      </c>
+      <c r="H66" s="2">
+        <v>1232673.5023121601</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1411309714.5392039</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
       </c>
       <c r="C67">
-        <v>440</v>
-      </c>
-      <c r="D67">
-        <v>1293530.718363659</v>
-      </c>
-      <c r="E67">
-        <v>1144.4816363414279</v>
-      </c>
-      <c r="F67">
-        <v>240900</v>
-      </c>
-      <c r="G67">
-        <v>14772152.381349221</v>
-      </c>
-      <c r="H67">
-        <v>1695067.0811108991</v>
-      </c>
-      <c r="I67">
-        <v>952551370.8895396</v>
+        <v>93</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3493848.0769298328</v>
+      </c>
+      <c r="E67" s="2">
+        <v>753.5230701668188</v>
+      </c>
+      <c r="F67" s="2">
+        <v>50917.5</v>
+      </c>
+      <c r="G67" s="2">
+        <v>5974128.6017812416</v>
+      </c>
+      <c r="H67" s="2">
+        <v>476856.27567530121</v>
+      </c>
+      <c r="I67" s="2">
+        <v>543791418.27023304</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C68">
-        <v>100</v>
-      </c>
-      <c r="D68">
-        <v>1661414.8062967211</v>
-      </c>
-      <c r="E68">
-        <v>978.79370327992365</v>
-      </c>
-      <c r="F68">
-        <v>54750</v>
-      </c>
-      <c r="G68">
-        <v>3870004.907955077</v>
-      </c>
-      <c r="H68">
-        <v>413238.71235748922</v>
-      </c>
-      <c r="I68">
-        <v>278055219.09971499</v>
+        <v>98</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3493138.6378434771</v>
+      </c>
+      <c r="E68" s="2">
+        <v>186.16215652413669</v>
+      </c>
+      <c r="F68" s="2">
+        <v>53655</v>
+      </c>
+      <c r="G68" s="2">
+        <v>6294313.0988704991</v>
+      </c>
+      <c r="H68" s="2">
+        <v>502462.22640391078</v>
+      </c>
+      <c r="I68" s="2">
+        <v>572906807.04953015</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
       </c>
       <c r="C69">
-        <v>308</v>
-      </c>
-      <c r="D69">
-        <v>492613.31978202239</v>
-      </c>
-      <c r="E69">
-        <v>231.48021797765981</v>
-      </c>
-      <c r="F69">
-        <v>168630</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>916768.75394172966</v>
-      </c>
-      <c r="I69">
-        <v>253926144.45290041</v>
+        <v>82</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3490024.8300394681</v>
+      </c>
+      <c r="E69" s="2">
+        <v>746.36996053345501</v>
+      </c>
+      <c r="F69" s="2">
+        <v>44895</v>
+      </c>
+      <c r="G69" s="2">
+        <v>5263141.6208705287</v>
+      </c>
+      <c r="H69" s="2">
+        <v>420317.02446142241</v>
+      </c>
+      <c r="I69" s="2">
+        <v>478947286.10087711</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
       </c>
       <c r="C70">
-        <v>175</v>
-      </c>
-      <c r="D70">
-        <v>5281800.8120658714</v>
-      </c>
-      <c r="E70">
-        <v>320.78793413005769</v>
-      </c>
-      <c r="F70">
-        <v>95812.5</v>
-      </c>
-      <c r="G70">
-        <v>15602262.976619929</v>
-      </c>
-      <c r="H70">
-        <v>1016236.804479918</v>
-      </c>
-      <c r="I70">
-        <v>1546900226.7017219</v>
+        <v>60</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3479377.1480038669</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1179.651996132452</v>
+      </c>
+      <c r="F70" s="2">
+        <v>32850</v>
+      </c>
+      <c r="G70" s="2">
+        <v>3842192.5890287859</v>
+      </c>
+      <c r="H70" s="2">
+        <v>307270.26259704132</v>
+      </c>
+      <c r="I70" s="2">
+        <v>349382098.45179868</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C71">
-        <v>199</v>
-      </c>
-      <c r="D71">
-        <v>1449250.258462477</v>
-      </c>
-      <c r="E71">
-        <v>1194.5415375237351</v>
-      </c>
-      <c r="F71">
-        <v>108952.5</v>
-      </c>
-      <c r="G71">
-        <v>7112920.6715641338</v>
-      </c>
-      <c r="H71">
-        <v>791323.51069544395</v>
-      </c>
-      <c r="I71">
-        <v>482674345.14476663</v>
+        <v>148</v>
+      </c>
+      <c r="D71" s="2">
+        <v>3408576.493262846</v>
+      </c>
+      <c r="E71" s="2">
+        <v>479.50673715490848</v>
+      </c>
+      <c r="F71" s="2">
+        <v>81030</v>
+      </c>
+      <c r="G71" s="2">
+        <v>9331305.322753422</v>
+      </c>
+      <c r="H71" s="2">
+        <v>753315.25569702289</v>
+      </c>
+      <c r="I71" s="2">
+        <v>844264678.74272346</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C72">
-        <v>126</v>
-      </c>
-      <c r="D72">
-        <v>3240182.634133725</v>
-      </c>
-      <c r="E72">
-        <v>335.76586627517833</v>
-      </c>
-      <c r="F72">
-        <v>68985</v>
-      </c>
-      <c r="G72">
-        <v>7648504.2736696349</v>
-      </c>
-      <c r="H72">
-        <v>631774.03766355629</v>
-      </c>
-      <c r="I72">
-        <v>683255509.46087885</v>
+        <v>340</v>
+      </c>
+      <c r="D72" s="2">
+        <v>3334274.5967586539</v>
+      </c>
+      <c r="E72" s="2">
+        <v>727.00324134598486</v>
+      </c>
+      <c r="F72" s="2">
+        <v>186150</v>
+      </c>
+      <c r="G72" s="2">
+        <v>21084759.934406001</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1719309.510413788</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1897255031.2895751</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
       </c>
       <c r="C73">
-        <v>70</v>
-      </c>
-      <c r="D73">
-        <v>443289.55175317847</v>
-      </c>
-      <c r="E73">
-        <v>1036.848246821522</v>
-      </c>
-      <c r="F73">
-        <v>38325</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>202826.5110171561</v>
-      </c>
-      <c r="I73">
-        <v>51936666.612438262</v>
+        <v>301</v>
+      </c>
+      <c r="D73" s="2">
+        <v>3293602.3179737339</v>
+      </c>
+      <c r="E73" s="2">
+        <v>541.68202626612037</v>
+      </c>
+      <c r="F73" s="2">
+        <v>164797.5</v>
+      </c>
+      <c r="G73" s="2">
+        <v>18495559.738422871</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1516565.977713011</v>
+      </c>
+      <c r="I73" s="2">
+        <v>1659136046.347054</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C74">
-        <v>45</v>
-      </c>
-      <c r="D74">
-        <v>547800</v>
-      </c>
-      <c r="E74">
-        <v>1224.0000000000871</v>
-      </c>
-      <c r="F74">
-        <v>24637.5</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>137660.89359532611</v>
-      </c>
-      <c r="I74">
-        <v>41259214.285714284</v>
+        <v>225</v>
+      </c>
+      <c r="D74" s="2">
+        <v>3280440.742979778</v>
+      </c>
+      <c r="E74" s="2">
+        <v>935.25702022283804</v>
+      </c>
+      <c r="F74" s="2">
+        <v>123187.5</v>
+      </c>
+      <c r="G74" s="2">
+        <v>13784370.824966021</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1132303.496926079</v>
+      </c>
+      <c r="I74" s="2">
+        <v>1235268909.533813</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
       </c>
       <c r="C75">
-        <v>129</v>
-      </c>
-      <c r="D75">
-        <v>4347598.4058952229</v>
-      </c>
-      <c r="E75">
-        <v>1182.394104778534</v>
-      </c>
-      <c r="F75">
-        <v>70627.5</v>
-      </c>
-      <c r="G75">
-        <v>9821630.2399178613</v>
-      </c>
-      <c r="H75">
-        <v>706192.48173229909</v>
-      </c>
-      <c r="I75">
-        <v>938611043.38458121</v>
+        <v>126</v>
+      </c>
+      <c r="D75" s="2">
+        <v>3240182.634133725</v>
+      </c>
+      <c r="E75" s="2">
+        <v>335.76586627517833</v>
+      </c>
+      <c r="F75" s="2">
+        <v>68985</v>
+      </c>
+      <c r="G75" s="2">
+        <v>7648504.2736696349</v>
+      </c>
+      <c r="H75" s="2">
+        <v>631774.03766355629</v>
+      </c>
+      <c r="I75" s="2">
+        <v>683255509.46087885</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s">
         <v>32</v>
       </c>
       <c r="C76">
-        <v>240</v>
-      </c>
-      <c r="D76">
-        <v>3513743.284244189</v>
-      </c>
-      <c r="E76">
-        <v>10.31575581175275</v>
-      </c>
-      <c r="F76">
-        <v>131400</v>
-      </c>
-      <c r="G76">
-        <v>15483535.295113061</v>
-      </c>
-      <c r="H76">
-        <v>1232673.5023121601</v>
-      </c>
-      <c r="I76">
-        <v>1411309714.5392039</v>
+        <v>95</v>
+      </c>
+      <c r="D76" s="2">
+        <v>3201291.055376071</v>
+      </c>
+      <c r="E76" s="2">
+        <v>923.34462393005379</v>
+      </c>
+      <c r="F76" s="2">
+        <v>52012.5</v>
+      </c>
+      <c r="G76" s="2">
+        <v>5715273.9609340904</v>
+      </c>
+      <c r="H76" s="2">
+        <v>474639.84572515299</v>
+      </c>
+      <c r="I76" s="2">
+        <v>508974037.32068312</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C77">
-        <v>94</v>
-      </c>
-      <c r="D77">
-        <v>5927356.2503217086</v>
-      </c>
-      <c r="E77">
-        <v>826.14967829175293</v>
-      </c>
-      <c r="F77">
-        <v>51465</v>
-      </c>
-      <c r="G77">
-        <v>9226383.7775600553</v>
-      </c>
-      <c r="H77">
-        <v>565459.70133278903</v>
-      </c>
-      <c r="I77">
-        <v>932465382.4887172</v>
+        <v>172</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3164909.2790883491</v>
+      </c>
+      <c r="E77" s="2">
+        <v>277.92091165180318</v>
+      </c>
+      <c r="F77" s="2">
+        <v>94170</v>
+      </c>
+      <c r="G77" s="2">
+        <v>10260370.40865151</v>
+      </c>
+      <c r="H77" s="2">
+        <v>856446.32992812595</v>
+      </c>
+      <c r="I77" s="2">
+        <v>911029622.19557464</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
       </c>
       <c r="C78">
-        <v>230</v>
-      </c>
-      <c r="D78">
-        <v>87683.082750684203</v>
-      </c>
-      <c r="E78">
-        <v>416.11724931577919</v>
-      </c>
-      <c r="F78">
-        <v>125925</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>455483.52390165091</v>
-      </c>
-      <c r="I78">
-        <v>33758340.599715322</v>
+        <v>280</v>
+      </c>
+      <c r="D78" s="2">
+        <v>2986760.7112444248</v>
+      </c>
+      <c r="E78" s="2">
+        <v>951.28875557659194</v>
+      </c>
+      <c r="F78" s="2">
+        <v>153300</v>
+      </c>
+      <c r="G78" s="2">
+        <v>16007867.56065746</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1370592.252588887</v>
+      </c>
+      <c r="I78" s="2">
+        <v>1399606451.0225101</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
       </c>
       <c r="C79">
-        <v>214</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
+        <v>195</v>
+      </c>
+      <c r="D79" s="2">
+        <v>2961774.2087427052</v>
+      </c>
+      <c r="E79" s="2">
+        <v>401.79125729715452</v>
+      </c>
+      <c r="F79" s="2">
+        <v>106762.5</v>
+      </c>
+      <c r="G79" s="2">
+        <v>11080361.806681771</v>
+      </c>
+      <c r="H79" s="2">
+        <v>952159.46813555015</v>
+      </c>
+      <c r="I79" s="2">
+        <v>966563334.21960557</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
       </c>
       <c r="C80">
-        <v>301</v>
-      </c>
-      <c r="D80">
-        <v>3293602.3179737339</v>
-      </c>
-      <c r="E80">
-        <v>541.68202626612037</v>
-      </c>
-      <c r="F80">
-        <v>164797.5</v>
-      </c>
-      <c r="G80">
-        <v>18495559.738422871</v>
-      </c>
-      <c r="H80">
-        <v>1516565.977713011</v>
-      </c>
-      <c r="I80">
-        <v>1659136046.347054</v>
+        <v>130</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2888219.7633249578</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1178.6366750411689</v>
+      </c>
+      <c r="F80" s="2">
+        <v>71175</v>
+      </c>
+      <c r="G80" s="2">
+        <v>7253710.0998403234</v>
+      </c>
+      <c r="H80" s="2">
+        <v>630098.32865188504</v>
+      </c>
+      <c r="I80" s="2">
+        <v>628380765.20381868</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
       </c>
       <c r="C81">
-        <v>47</v>
-      </c>
-      <c r="D81">
-        <v>2249961.4751459002</v>
-      </c>
-      <c r="E81">
-        <v>363648.12485410058</v>
-      </c>
-      <c r="F81">
-        <v>25732.5</v>
-      </c>
-      <c r="G81">
-        <v>2215531.9570002458</v>
-      </c>
-      <c r="H81">
-        <v>212275.78025561859</v>
-      </c>
-      <c r="I81">
-        <v>178314440.1246295</v>
+        <v>161</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2757046.685246476</v>
+      </c>
+      <c r="E81" s="2">
+        <v>841.3147535235621</v>
+      </c>
+      <c r="F81" s="2">
+        <v>88147.5</v>
+      </c>
+      <c r="G81" s="2">
+        <v>8689078.6344645824</v>
+      </c>
+      <c r="H81" s="2">
+        <v>769782.33408021391</v>
+      </c>
+      <c r="I81" s="2">
+        <v>742877490.32746994</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
       </c>
       <c r="C82">
-        <v>125</v>
-      </c>
-      <c r="D82">
-        <v>278300.04276622972</v>
-      </c>
-      <c r="E82">
-        <v>42.357233770191669</v>
-      </c>
-      <c r="F82">
-        <v>68437.5</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>322607.27876433678</v>
-      </c>
-      <c r="I82">
-        <v>58219353.765885092</v>
+        <v>169</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2569630.3933681101</v>
+      </c>
+      <c r="E82" s="2">
+        <v>568.00663188938051</v>
+      </c>
+      <c r="F82" s="2">
+        <v>92527.5</v>
+      </c>
+      <c r="G82" s="2">
+        <v>8679382.5154400896</v>
+      </c>
+      <c r="H82" s="2">
+        <v>791576.3857320426</v>
+      </c>
+      <c r="I82" s="2">
+        <v>726779817.71683586</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
       </c>
       <c r="C83">
-        <v>175</v>
-      </c>
-      <c r="D83">
-        <v>2195283.9142816798</v>
-      </c>
-      <c r="E83">
-        <v>812.08571831951849</v>
-      </c>
-      <c r="F83">
-        <v>95812.5</v>
-      </c>
-      <c r="G83">
-        <v>8074553.2600414921</v>
-      </c>
-      <c r="H83">
-        <v>783090.29647297063</v>
-      </c>
-      <c r="I83">
-        <v>642950092.73696899</v>
+        <v>93.2</v>
+      </c>
+      <c r="D83" s="2">
+        <v>2530350.7318887492</v>
+      </c>
+      <c r="E83" s="2">
+        <v>266.86811125127127</v>
+      </c>
+      <c r="F83" s="2">
+        <v>51027</v>
+      </c>
+      <c r="G83" s="2">
+        <v>4735461.0976741593</v>
+      </c>
+      <c r="H83" s="2">
+        <v>434581.95964306622</v>
+      </c>
+      <c r="I83" s="2">
+        <v>394675147.38585973</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
       </c>
       <c r="C84">
-        <v>164</v>
-      </c>
-      <c r="D84">
-        <v>6883750.7967955098</v>
-      </c>
-      <c r="E84">
-        <v>754.80320449220017</v>
-      </c>
-      <c r="F84">
-        <v>89790</v>
-      </c>
-      <c r="G84">
-        <v>18283038.004030999</v>
-      </c>
-      <c r="H84">
-        <v>1033078.281308594</v>
-      </c>
-      <c r="I84">
-        <v>1889349127.5045011</v>
+        <v>47</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2249961.4751459002</v>
+      </c>
+      <c r="E84" s="2">
+        <v>363648.12485410058</v>
+      </c>
+      <c r="F84" s="2">
+        <v>25732.5</v>
+      </c>
+      <c r="G84" s="2">
+        <v>2215531.9570002458</v>
+      </c>
+      <c r="H84" s="2">
+        <v>212275.78025561859</v>
+      </c>
+      <c r="I84" s="2">
+        <v>178314440.1246295</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C85">
-        <v>250</v>
-      </c>
-      <c r="D85">
-        <v>7575353.8086135574</v>
-      </c>
-      <c r="E85">
-        <v>1177.3913864434001</v>
-      </c>
-      <c r="F85">
-        <v>136875</v>
-      </c>
-      <c r="G85">
-        <v>30280216.481195509</v>
-      </c>
-      <c r="H85">
-        <v>1622277.9146812579</v>
-      </c>
-      <c r="I85">
-        <v>3169473245.1018362</v>
+        <v>202</v>
+      </c>
+      <c r="D85" s="2">
+        <v>2247943.925842646</v>
+      </c>
+      <c r="E85" s="2">
+        <v>500.87415735435212</v>
+      </c>
+      <c r="F85" s="2">
+        <v>110595</v>
+      </c>
+      <c r="G85" s="2">
+        <v>9468549.4543844536</v>
+      </c>
+      <c r="H85" s="2">
+        <v>910115.93872927595</v>
+      </c>
+      <c r="I85" s="2">
+        <v>759945368.86558008</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C86">
-        <v>185</v>
-      </c>
-      <c r="D86">
-        <v>1347870.0557931899</v>
-      </c>
-      <c r="E86">
-        <v>430.74420681060292</v>
-      </c>
-      <c r="F86">
-        <v>101287.5</v>
-      </c>
-      <c r="G86">
-        <v>6351034.8568543894</v>
-      </c>
-      <c r="H86">
-        <v>720896.6649074892</v>
-      </c>
-      <c r="I86">
-        <v>417318127.17991883</v>
+        <v>169</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2237035.5047947108</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1194.8952052888931</v>
+      </c>
+      <c r="F86" s="2">
+        <v>92527.5</v>
+      </c>
+      <c r="G86" s="2">
+        <v>7896091.1196063925</v>
+      </c>
+      <c r="H86" s="2">
+        <v>760367.45183368446</v>
+      </c>
+      <c r="I86" s="2">
+        <v>632719819.54263127</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C87">
-        <v>95</v>
-      </c>
-      <c r="D87">
-        <v>3201291.055376071</v>
-      </c>
-      <c r="E87">
-        <v>923.34462393005379</v>
-      </c>
-      <c r="F87">
-        <v>52012.5</v>
-      </c>
-      <c r="G87">
-        <v>5715273.9609340904</v>
-      </c>
-      <c r="H87">
-        <v>474639.84572515299</v>
-      </c>
-      <c r="I87">
-        <v>508974037.32068312</v>
+        <v>175</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2195283.9142816798</v>
+      </c>
+      <c r="E87" s="2">
+        <v>812.08571831951849</v>
+      </c>
+      <c r="F87" s="2">
+        <v>95812.5</v>
+      </c>
+      <c r="G87" s="2">
+        <v>8074553.2600414921</v>
+      </c>
+      <c r="H87" s="2">
+        <v>783090.29647297063</v>
+      </c>
+      <c r="I87" s="2">
+        <v>642950092.73696899</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C88">
-        <v>80</v>
-      </c>
-      <c r="D88">
-        <v>799914.1817318463</v>
-      </c>
-      <c r="E88">
-        <v>639.41826815344393</v>
-      </c>
-      <c r="F88">
-        <v>43800</v>
-      </c>
-      <c r="G88">
-        <v>2135469.3978743982</v>
-      </c>
-      <c r="H88">
-        <v>270356.46944414912</v>
-      </c>
-      <c r="I88">
-        <v>107100286.04958799</v>
+        <v>123</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2154215.4335022769</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1022.9664977234791</v>
+      </c>
+      <c r="F88" s="2">
+        <v>67342.5</v>
+      </c>
+      <c r="G88" s="2">
+        <v>5604874.2738025486</v>
+      </c>
+      <c r="H88" s="2">
+        <v>547412.77903171745</v>
+      </c>
+      <c r="I88" s="2">
+        <v>443450242.55933958</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
       </c>
       <c r="C89">
-        <v>80</v>
-      </c>
-      <c r="D89">
-        <v>14540021.248698691</v>
-      </c>
-      <c r="E89">
-        <v>177.15130131784829</v>
-      </c>
-      <c r="F89">
-        <v>43800</v>
-      </c>
-      <c r="G89">
-        <v>17454765.51839795</v>
-      </c>
-      <c r="H89">
-        <v>637937.36177903472</v>
-      </c>
-      <c r="I89">
-        <v>1946687664.119642</v>
+        <v>181</v>
+      </c>
+      <c r="D89" s="2">
+        <v>2089069.2806604081</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1052.31933959201</v>
+      </c>
+      <c r="F89" s="2">
+        <v>99097.5</v>
+      </c>
+      <c r="G89" s="2">
+        <v>8083492.8433442386</v>
+      </c>
+      <c r="H89" s="2">
+        <v>798454.45462523145</v>
+      </c>
+      <c r="I89" s="2">
+        <v>632823584.91830409</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
       </c>
       <c r="C90">
-        <v>82.6</v>
-      </c>
-      <c r="D90">
-        <v>4069806.992417614</v>
-      </c>
-      <c r="E90">
-        <v>631.40758238639683</v>
-      </c>
-      <c r="F90">
-        <v>45223.5</v>
-      </c>
-      <c r="G90">
-        <v>5969074.0135118496</v>
-      </c>
-      <c r="H90">
-        <v>443288.85508745181</v>
-      </c>
-      <c r="I90">
-        <v>562597781.36756086</v>
+        <v>141</v>
+      </c>
+      <c r="D90" s="2">
+        <v>2045047.1645657809</v>
+      </c>
+      <c r="E90" s="2">
+        <v>386.43543421872891</v>
+      </c>
+      <c r="F90" s="2">
+        <v>77197.5</v>
+      </c>
+      <c r="G90" s="2">
+        <v>6210517.7133275187</v>
+      </c>
+      <c r="H90" s="2">
+        <v>618203.5117215194</v>
+      </c>
+      <c r="I90" s="2">
+        <v>482577737.22983181</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
       </c>
       <c r="C91">
-        <v>69</v>
-      </c>
-      <c r="D91">
-        <v>5255779.0258600116</v>
-      </c>
-      <c r="E91">
-        <v>806.57413998921402</v>
-      </c>
-      <c r="F91">
-        <v>37777.5</v>
-      </c>
-      <c r="G91">
-        <v>6126747.9063826036</v>
-      </c>
-      <c r="H91">
-        <v>400085.44650174701</v>
-      </c>
-      <c r="I91">
-        <v>606918405.63216269</v>
+        <v>131</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2044422.330232624</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1011.2697673764779</v>
+      </c>
+      <c r="F91" s="2">
+        <v>71722.5</v>
+      </c>
+      <c r="G91" s="2">
+        <v>5768968.0873048054</v>
+      </c>
+      <c r="H91" s="2">
+        <v>574311.26466232678</v>
+      </c>
+      <c r="I91" s="2">
+        <v>448221790.29646999</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
       </c>
       <c r="C92">
-        <v>97.7</v>
-      </c>
-      <c r="D92">
-        <v>1434041.2962530679</v>
-      </c>
-      <c r="E92">
-        <v>1081.903746932046</v>
-      </c>
-      <c r="F92">
-        <v>53490.75</v>
-      </c>
-      <c r="G92">
-        <v>3471406.449017969</v>
-      </c>
-      <c r="H92">
-        <v>387357.96525039512</v>
-      </c>
-      <c r="I92">
-        <v>234483644.78911811</v>
+        <v>172</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1960390.0383013401</v>
+      </c>
+      <c r="E92" s="2">
+        <v>774.76169866020791</v>
+      </c>
+      <c r="F92" s="2">
+        <v>94170</v>
+      </c>
+      <c r="G92" s="2">
+        <v>7373061.8638594151</v>
+      </c>
+      <c r="H92" s="2">
+        <v>745038.32436682563</v>
+      </c>
+      <c r="I92" s="2">
+        <v>564312885.74725342</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -14656,1609 +14715,1594 @@
       <c r="C93">
         <v>134</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="2">
         <v>1810155.068055429</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2">
         <v>347.33194457134232</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="2">
         <v>73365</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="2">
         <v>5463526.1162096728</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="2">
         <v>567374.79748577112</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="2">
         <v>405943395.26194388</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C94">
-        <v>196</v>
-      </c>
-      <c r="D94">
-        <v>542925.29040491697</v>
-      </c>
-      <c r="E94">
-        <v>991.50959508260712</v>
-      </c>
-      <c r="F94">
-        <v>107310</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>598201.74026766489</v>
-      </c>
-      <c r="I94">
-        <v>178104240.7999374</v>
+        <v>353</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1804883.4277640569</v>
+      </c>
+      <c r="E94" s="2">
+        <v>511.77223594300449</v>
+      </c>
+      <c r="F94" s="2">
+        <v>193267.5</v>
+      </c>
+      <c r="G94" s="2">
+        <v>14366825.024987189</v>
+      </c>
+      <c r="H94" s="2">
+        <v>1493413.2319852761</v>
+      </c>
+      <c r="I94" s="2">
+        <v>1066278436.905898</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
       </c>
       <c r="C95">
-        <v>100</v>
-      </c>
-      <c r="D95">
-        <v>6191910.6991169583</v>
-      </c>
-      <c r="E95">
-        <v>569.30088304216042</v>
-      </c>
-      <c r="F95">
-        <v>54750</v>
-      </c>
-      <c r="G95">
-        <v>10183986.26155494</v>
-      </c>
-      <c r="H95">
-        <v>609676.31598410825</v>
-      </c>
-      <c r="I95">
-        <v>1036257182.954372</v>
+        <v>91</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1789499.8383774629</v>
+      </c>
+      <c r="E95" s="2">
+        <v>573.7616225364618</v>
+      </c>
+      <c r="F95" s="2">
+        <v>49822.5</v>
+      </c>
+      <c r="G95" s="2">
+        <v>3684122.7396899122</v>
+      </c>
+      <c r="H95" s="2">
+        <v>384051.37475607381</v>
+      </c>
+      <c r="I95" s="2">
+        <v>272533926.53779513</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
         <v>26</v>
       </c>
       <c r="C96">
-        <v>123</v>
-      </c>
-      <c r="D96">
-        <v>2154215.4335022769</v>
-      </c>
-      <c r="E96">
-        <v>1022.9664977234791</v>
-      </c>
-      <c r="F96">
-        <v>67342.5</v>
-      </c>
-      <c r="G96">
-        <v>5604874.2738025486</v>
-      </c>
-      <c r="H96">
-        <v>547412.77903171745</v>
-      </c>
-      <c r="I96">
-        <v>443450242.55933958</v>
+        <v>100</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1661414.8062967211</v>
+      </c>
+      <c r="E96" s="2">
+        <v>978.79370327992365</v>
+      </c>
+      <c r="F96" s="2">
+        <v>54750</v>
+      </c>
+      <c r="G96" s="2">
+        <v>3870004.907955077</v>
+      </c>
+      <c r="H96" s="2">
+        <v>413238.71235748922</v>
+      </c>
+      <c r="I96" s="2">
+        <v>278055219.09971499</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C97">
-        <v>80</v>
-      </c>
-      <c r="D97">
-        <v>1567311.7130892039</v>
-      </c>
-      <c r="E97">
-        <v>598.68691079621203</v>
-      </c>
-      <c r="F97">
-        <v>43800</v>
-      </c>
-      <c r="G97">
-        <v>2991065.3023272101</v>
-      </c>
-      <c r="H97">
-        <v>325193.29124264879</v>
-      </c>
-      <c r="I97">
-        <v>209842828.14662221</v>
+        <v>142</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1643900.123481486</v>
+      </c>
+      <c r="E97" s="2">
+        <v>618.27651851484552</v>
+      </c>
+      <c r="F97" s="2">
+        <v>77745</v>
+      </c>
+      <c r="G97" s="2">
+        <v>5460711.8675808832</v>
+      </c>
+      <c r="H97" s="2">
+        <v>585041.40729356417</v>
+      </c>
+      <c r="I97" s="2">
+        <v>390672118.44768697</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C98">
-        <v>142</v>
-      </c>
-      <c r="D98">
-        <v>1643900.123481486</v>
-      </c>
-      <c r="E98">
-        <v>618.27651851484552</v>
-      </c>
-      <c r="F98">
-        <v>77745</v>
-      </c>
-      <c r="G98">
-        <v>5460711.8675808832</v>
-      </c>
-      <c r="H98">
-        <v>585041.40729356417</v>
-      </c>
-      <c r="I98">
-        <v>390672118.44768697</v>
+        <v>110</v>
+      </c>
+      <c r="D98" s="2">
+        <v>1585216.737589298</v>
+      </c>
+      <c r="E98" s="2">
+        <v>568.86241070250981</v>
+      </c>
+      <c r="F98" s="2">
+        <v>60225.000000000007</v>
+      </c>
+      <c r="G98" s="2">
+        <v>4140161.6805749252</v>
+      </c>
+      <c r="H98" s="2">
+        <v>448574.25973532163</v>
+      </c>
+      <c r="I98" s="2">
+        <v>291829794.19126493</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B99" t="s">
         <v>26</v>
       </c>
       <c r="C99">
-        <v>60</v>
-      </c>
-      <c r="D99">
-        <v>4276329.1684307726</v>
-      </c>
-      <c r="E99">
-        <v>950.83156922832131</v>
-      </c>
-      <c r="F99">
-        <v>32850</v>
-      </c>
-      <c r="G99">
-        <v>4508595.6477893218</v>
-      </c>
-      <c r="H99">
-        <v>326829.93011257157</v>
-      </c>
-      <c r="I99">
-        <v>429405791.83551681</v>
+        <v>80</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1567311.7130892039</v>
+      </c>
+      <c r="E99" s="2">
+        <v>598.68691079621203</v>
+      </c>
+      <c r="F99" s="2">
+        <v>43800</v>
+      </c>
+      <c r="G99" s="2">
+        <v>2991065.3023272101</v>
+      </c>
+      <c r="H99" s="2">
+        <v>325193.29124264879</v>
+      </c>
+      <c r="I99" s="2">
+        <v>209842828.14662221</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C100">
-        <v>225</v>
-      </c>
-      <c r="D100">
-        <v>3280440.742979778</v>
-      </c>
-      <c r="E100">
-        <v>935.25702022283804</v>
-      </c>
-      <c r="F100">
-        <v>123187.5</v>
-      </c>
-      <c r="G100">
-        <v>13784370.824966021</v>
-      </c>
-      <c r="H100">
-        <v>1132303.496926079</v>
-      </c>
-      <c r="I100">
-        <v>1235268909.533813</v>
+        <v>208</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1532383.444452689</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1053.3555473118611</v>
+      </c>
+      <c r="F100" s="2">
+        <v>113880</v>
+      </c>
+      <c r="G100" s="2">
+        <v>7675580.3593663014</v>
+      </c>
+      <c r="H100" s="2">
+        <v>840159.67973370431</v>
+      </c>
+      <c r="I100" s="2">
+        <v>533440220.99744439</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
         <v>26</v>
       </c>
       <c r="C101">
-        <v>100</v>
-      </c>
-      <c r="D101">
-        <v>1171249.598927665</v>
-      </c>
-      <c r="E101">
-        <v>852.8010723348707</v>
-      </c>
-      <c r="F101">
-        <v>54750</v>
-      </c>
-      <c r="G101">
-        <v>3186869.0275775492</v>
-      </c>
-      <c r="H101">
-        <v>374802.89386656118</v>
-      </c>
-      <c r="I101">
-        <v>196022197.9241752</v>
+        <v>218</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1526565.418097133</v>
+      </c>
+      <c r="E101" s="2">
+        <v>487.38190286746249</v>
+      </c>
+      <c r="F101" s="2">
+        <v>119355</v>
+      </c>
+      <c r="G101" s="2">
+        <v>8026841.8648902038</v>
+      </c>
+      <c r="H101" s="2">
+        <v>879606.38163159066</v>
+      </c>
+      <c r="I101" s="2">
+        <v>556954097.54111242</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="B102" t="s">
         <v>26</v>
       </c>
       <c r="C102">
-        <v>131</v>
-      </c>
-      <c r="D102">
-        <v>2044422.330232624</v>
-      </c>
-      <c r="E102">
-        <v>1011.2697673764779</v>
-      </c>
-      <c r="F102">
-        <v>71722.5</v>
-      </c>
-      <c r="G102">
-        <v>5768968.0873048054</v>
-      </c>
-      <c r="H102">
-        <v>574311.26466232678</v>
-      </c>
-      <c r="I102">
-        <v>448221790.29646999</v>
+        <v>64</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1502334.796195785</v>
+      </c>
+      <c r="E102" s="2">
+        <v>458.80380421504378</v>
+      </c>
+      <c r="F102" s="2">
+        <v>35040</v>
+      </c>
+      <c r="G102" s="2">
+        <v>2334890.3945825379</v>
+      </c>
+      <c r="H102" s="2">
+        <v>257074.71455862789</v>
+      </c>
+      <c r="I102" s="2">
+        <v>160914028.71636969</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C103">
-        <v>36</v>
-      </c>
-      <c r="D103">
-        <v>1062754.8556123399</v>
-      </c>
-      <c r="E103">
-        <v>757961.9443876599</v>
-      </c>
-      <c r="F103">
-        <v>19710</v>
-      </c>
-      <c r="G103">
-        <v>1110615.7269573361</v>
-      </c>
-      <c r="H103">
-        <v>132561.1028194032</v>
-      </c>
-      <c r="I103">
-        <v>66166093.136594377</v>
+        <v>199</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1449250.258462477</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1194.5415375237351</v>
+      </c>
+      <c r="F103" s="2">
+        <v>108952.5</v>
+      </c>
+      <c r="G103" s="2">
+        <v>7112920.6715641338</v>
+      </c>
+      <c r="H103" s="2">
+        <v>791323.51069544395</v>
+      </c>
+      <c r="I103" s="2">
+        <v>482674345.14476663</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="B104" t="s">
         <v>26</v>
       </c>
       <c r="C104">
-        <v>161</v>
-      </c>
-      <c r="D104">
-        <v>2757046.685246476</v>
-      </c>
-      <c r="E104">
-        <v>841.3147535235621</v>
-      </c>
-      <c r="F104">
-        <v>88147.5</v>
-      </c>
-      <c r="G104">
-        <v>8689078.6344645824</v>
-      </c>
-      <c r="H104">
-        <v>769782.33408021391</v>
-      </c>
-      <c r="I104">
-        <v>742877490.32746994</v>
+        <v>170</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1448463.406732403</v>
+      </c>
+      <c r="E104" s="2">
+        <v>704.59326759702526</v>
+      </c>
+      <c r="F104" s="2">
+        <v>93075</v>
+      </c>
+      <c r="G104" s="2">
+        <v>6074445.8310275786</v>
+      </c>
+      <c r="H104" s="2">
+        <v>675899.20783068985</v>
+      </c>
+      <c r="I104" s="2">
+        <v>412104481.01623958</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B105" t="s">
         <v>26</v>
       </c>
       <c r="C105">
-        <v>69.5</v>
-      </c>
-      <c r="D105">
-        <v>7831550.7052359106</v>
-      </c>
-      <c r="E105">
-        <v>340.49476409005001</v>
-      </c>
-      <c r="F105">
-        <v>38051.25</v>
-      </c>
-      <c r="G105">
-        <v>8666014.4060331192</v>
-      </c>
-      <c r="H105">
-        <v>455685.0892496134</v>
-      </c>
-      <c r="I105">
-        <v>910907868.06978619</v>
+        <v>97.7</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1434041.2962530679</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1081.903746932046</v>
+      </c>
+      <c r="F105" s="2">
+        <v>53490.75</v>
+      </c>
+      <c r="G105" s="2">
+        <v>3471406.449017969</v>
+      </c>
+      <c r="H105" s="2">
+        <v>387357.96525039512</v>
+      </c>
+      <c r="I105" s="2">
+        <v>234483644.78911811</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B106" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C106">
-        <v>141</v>
-      </c>
-      <c r="D106">
-        <v>2045047.1645657809</v>
-      </c>
-      <c r="E106">
-        <v>386.43543421872891</v>
-      </c>
-      <c r="F106">
-        <v>77197.5</v>
-      </c>
-      <c r="G106">
-        <v>6210517.7133275187</v>
-      </c>
-      <c r="H106">
-        <v>618203.5117215194</v>
-      </c>
-      <c r="I106">
-        <v>482577737.22983181</v>
+        <v>260</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1410530.0420475821</v>
+      </c>
+      <c r="E106" s="2">
+        <v>333.95795241789892</v>
+      </c>
+      <c r="F106" s="2">
+        <v>142350</v>
+      </c>
+      <c r="G106" s="2">
+        <v>9152813.1038100999</v>
+      </c>
+      <c r="H106" s="2">
+        <v>1026078.2678004151</v>
+      </c>
+      <c r="I106" s="2">
+        <v>613764126.96354473</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C107">
-        <v>210</v>
-      </c>
-      <c r="D107">
-        <v>1381573.595827596</v>
-      </c>
-      <c r="E107">
-        <v>1200.8041724045181</v>
-      </c>
-      <c r="F107">
-        <v>114975</v>
-      </c>
-      <c r="G107">
-        <v>7308028.5422427282</v>
-      </c>
-      <c r="H107">
-        <v>823975.25666269101</v>
-      </c>
-      <c r="I107">
-        <v>485570154.60224462</v>
+        <v>64</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1395458.0831575631</v>
+      </c>
+      <c r="E107" s="2">
+        <v>84.316842437023297</v>
+      </c>
+      <c r="F107" s="2">
+        <v>35040</v>
+      </c>
+      <c r="G107" s="2">
+        <v>2239546.3297627382</v>
+      </c>
+      <c r="H107" s="2">
+        <v>251815.59840622701</v>
+      </c>
+      <c r="I107" s="2">
+        <v>149464825.25189599</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B108" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C108">
-        <v>125</v>
-      </c>
-      <c r="D108">
-        <v>618250.2394497986</v>
-      </c>
-      <c r="E108">
-        <v>997.76055020152126</v>
-      </c>
-      <c r="F108">
-        <v>68437.5</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>394616.95491473819</v>
-      </c>
-      <c r="I108">
-        <v>129344541.7950491</v>
+        <v>108</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1392050.258462477</v>
+      </c>
+      <c r="E108" s="2">
+        <v>938.54153752373531</v>
+      </c>
+      <c r="F108" s="2">
+        <v>59130.000000000007</v>
+      </c>
+      <c r="G108" s="2">
+        <v>3774165.2759857001</v>
+      </c>
+      <c r="H108" s="2">
+        <v>424652.18747651088</v>
+      </c>
+      <c r="I108" s="2">
+        <v>251613173.10082099</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B109" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C109">
-        <v>169</v>
-      </c>
-      <c r="D109">
-        <v>2237035.5047947108</v>
-      </c>
-      <c r="E109">
-        <v>1194.8952052888931</v>
-      </c>
-      <c r="F109">
-        <v>92527.5</v>
-      </c>
-      <c r="G109">
-        <v>7896091.1196063925</v>
-      </c>
-      <c r="H109">
-        <v>760367.45183368446</v>
-      </c>
-      <c r="I109">
-        <v>632719819.54263127</v>
+        <v>210</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1381573.595827596</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1200.8041724045181</v>
+      </c>
+      <c r="F109" s="2">
+        <v>114975</v>
+      </c>
+      <c r="G109" s="2">
+        <v>7308028.5422427282</v>
+      </c>
+      <c r="H109" s="2">
+        <v>823975.25666269101</v>
+      </c>
+      <c r="I109" s="2">
+        <v>485570154.60224462</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
         <v>32</v>
       </c>
       <c r="C110">
-        <v>169</v>
-      </c>
-      <c r="D110">
-        <v>578346.73119322513</v>
-      </c>
-      <c r="E110">
-        <v>43.668806775007397</v>
-      </c>
-      <c r="F110">
-        <v>92527.5</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>524308.93228381407</v>
-      </c>
-      <c r="I110">
-        <v>163575224.69764021</v>
+        <v>185</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1347870.0557931899</v>
+      </c>
+      <c r="E110" s="2">
+        <v>430.74420681060292</v>
+      </c>
+      <c r="F110" s="2">
+        <v>101287.5</v>
+      </c>
+      <c r="G110" s="2">
+        <v>6351034.8568543894</v>
+      </c>
+      <c r="H110" s="2">
+        <v>720896.6649074892</v>
+      </c>
+      <c r="I110" s="2">
+        <v>417318127.17991883</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B111" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C111">
-        <v>181</v>
-      </c>
-      <c r="D111">
-        <v>2089069.2806604081</v>
-      </c>
-      <c r="E111">
-        <v>1052.31933959201</v>
-      </c>
-      <c r="F111">
-        <v>99097.5</v>
-      </c>
-      <c r="G111">
-        <v>8083492.8433442386</v>
-      </c>
-      <c r="H111">
-        <v>798454.45462523145</v>
-      </c>
-      <c r="I111">
-        <v>632823584.91830409</v>
+        <v>120</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1347870.0557931899</v>
+      </c>
+      <c r="E111" s="2">
+        <v>430.74420681060292</v>
+      </c>
+      <c r="F111" s="2">
+        <v>65700</v>
+      </c>
+      <c r="G111" s="2">
+        <v>4119590.1774190632</v>
+      </c>
+      <c r="H111" s="2">
+        <v>467608.64750756038</v>
+      </c>
+      <c r="I111" s="2">
+        <v>270692839.25183922</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="B112" t="s">
         <v>26</v>
       </c>
       <c r="C112">
-        <v>142</v>
-      </c>
-      <c r="D112">
-        <v>13716627.399837879</v>
-      </c>
-      <c r="E112">
-        <v>35.000162129523233</v>
-      </c>
-      <c r="F112">
-        <v>77745</v>
-      </c>
-      <c r="G112">
-        <v>29352691.919322979</v>
-      </c>
-      <c r="H112">
-        <v>1111371.9799404291</v>
-      </c>
-      <c r="I112">
-        <v>3259693292.4299412</v>
+        <v>440</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1293530.718363659</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1144.4816363414279</v>
+      </c>
+      <c r="F112" s="2">
+        <v>240900</v>
+      </c>
+      <c r="G112" s="2">
+        <v>14772152.381349221</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1695067.0811108991</v>
+      </c>
+      <c r="I112" s="2">
+        <v>952551370.8895396</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B113" t="s">
         <v>26</v>
       </c>
       <c r="C113">
-        <v>74</v>
-      </c>
-      <c r="D113">
-        <v>16197797.939887989</v>
-      </c>
-      <c r="E113">
-        <v>963.66011201916263</v>
-      </c>
-      <c r="F113">
-        <v>40515</v>
-      </c>
-      <c r="G113">
-        <v>17855385.152767949</v>
-      </c>
-      <c r="H113">
-        <v>610955.90676357015</v>
-      </c>
-      <c r="I113">
-        <v>2005995280.618206</v>
+        <v>100</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1171249.598927665</v>
+      </c>
+      <c r="E113" s="2">
+        <v>852.8010723348707</v>
+      </c>
+      <c r="F113" s="2">
+        <v>54750</v>
+      </c>
+      <c r="G113" s="2">
+        <v>3186869.0275775492</v>
+      </c>
+      <c r="H113" s="2">
+        <v>374802.89386656118</v>
+      </c>
+      <c r="I113" s="2">
+        <v>196022197.9241752</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="B114" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C114">
-        <v>140</v>
-      </c>
-      <c r="D114">
-        <v>8849422.0969725214</v>
-      </c>
-      <c r="E114">
-        <v>78.703027480281889</v>
-      </c>
-      <c r="F114">
-        <v>76650</v>
-      </c>
-      <c r="G114">
-        <v>19442700.750586249</v>
-      </c>
-      <c r="H114">
-        <v>953652.33713254263</v>
-      </c>
-      <c r="I114">
-        <v>2073404934.99053</v>
+        <v>340</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1165060.370570672</v>
+      </c>
+      <c r="E114" s="2">
+        <v>658.02942932787118</v>
+      </c>
+      <c r="F114" s="2">
+        <v>186150</v>
+      </c>
+      <c r="G114" s="2">
+        <v>10805984.017522911</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1272468.250731159</v>
+      </c>
+      <c r="I114" s="2">
+        <v>662948553.37142646</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C115">
-        <v>151</v>
-      </c>
-      <c r="D115">
-        <v>5208630.465558935</v>
-      </c>
-      <c r="E115">
-        <v>713.53444106644019</v>
-      </c>
-      <c r="F115">
-        <v>82672.5</v>
-      </c>
-      <c r="G115">
-        <v>13308580.20431168</v>
-      </c>
-      <c r="H115">
-        <v>873148.50644076453</v>
-      </c>
-      <c r="I115">
-        <v>1316267867.144279</v>
+        <v>36</v>
+      </c>
+      <c r="D115" s="2">
+        <v>1062754.8556123399</v>
+      </c>
+      <c r="E115" s="2">
+        <v>757961.9443876599</v>
+      </c>
+      <c r="F115" s="2">
+        <v>19710</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1110615.7269573361</v>
+      </c>
+      <c r="H115" s="2">
+        <v>132561.1028194032</v>
+      </c>
+      <c r="I115" s="2">
+        <v>66166093.136594377</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="B116" t="s">
         <v>26</v>
       </c>
       <c r="C116">
-        <v>60</v>
-      </c>
-      <c r="D116">
-        <v>3479377.1480038669</v>
-      </c>
-      <c r="E116">
-        <v>1179.651996132452</v>
-      </c>
-      <c r="F116">
-        <v>32850</v>
-      </c>
-      <c r="G116">
-        <v>3842192.5890287859</v>
-      </c>
-      <c r="H116">
-        <v>307270.26259704132</v>
-      </c>
-      <c r="I116">
-        <v>349382098.45179868</v>
+        <v>184</v>
+      </c>
+      <c r="D116" s="2">
+        <v>911149.43519020022</v>
+      </c>
+      <c r="E116" s="2">
+        <v>485.76480979984632</v>
+      </c>
+      <c r="F116" s="2">
+        <v>100740</v>
+      </c>
+      <c r="G116" s="2">
+        <v>5196807.2408387614</v>
+      </c>
+      <c r="H116" s="2">
+        <v>643960.47461814992</v>
+      </c>
+      <c r="I116" s="2">
+        <v>280581653.26249492</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C117">
-        <v>221</v>
-      </c>
-      <c r="D117">
-        <v>3945451.2814423228</v>
-      </c>
-      <c r="E117">
-        <v>1137.5185576775109</v>
-      </c>
-      <c r="F117">
-        <v>120997.5</v>
-      </c>
-      <c r="G117">
-        <v>15587581.42830421</v>
-      </c>
-      <c r="H117">
-        <v>1175053.51642876</v>
-      </c>
-      <c r="I117">
-        <v>1459270555.340868</v>
+        <v>195</v>
+      </c>
+      <c r="D117" s="2">
+        <v>894330.07009633153</v>
+      </c>
+      <c r="E117" s="2">
+        <v>706.72990366863087</v>
+      </c>
+      <c r="F117" s="2">
+        <v>106762.5</v>
+      </c>
+      <c r="G117" s="2">
+        <v>5461804.8397792429</v>
+      </c>
+      <c r="H117" s="2">
+        <v>679036.24204749183</v>
+      </c>
+      <c r="I117" s="2">
+        <v>291870032.5192517</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="B118" t="s">
         <v>32</v>
       </c>
       <c r="C118">
-        <v>120</v>
-      </c>
-      <c r="D118">
-        <v>1347870.0557931899</v>
-      </c>
-      <c r="E118">
-        <v>430.74420681060292</v>
-      </c>
-      <c r="F118">
-        <v>65700</v>
-      </c>
-      <c r="G118">
-        <v>4119590.1774190632</v>
-      </c>
-      <c r="H118">
-        <v>467608.64750756038</v>
-      </c>
-      <c r="I118">
-        <v>270692839.25183922</v>
+        <v>70</v>
+      </c>
+      <c r="D118" s="2">
+        <v>861005.12025265419</v>
+      </c>
+      <c r="E118" s="2">
+        <v>834.87974734592717</v>
+      </c>
+      <c r="F118" s="2">
+        <v>38325</v>
+      </c>
+      <c r="G118" s="2">
+        <v>1928142.995920788</v>
+      </c>
+      <c r="H118" s="2">
+        <v>241276.68898325411</v>
+      </c>
+      <c r="I118" s="2">
+        <v>100870571.7615464</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C119">
-        <v>108</v>
-      </c>
-      <c r="D119">
-        <v>1392050.258462477</v>
-      </c>
-      <c r="E119">
-        <v>938.54153752373531</v>
-      </c>
-      <c r="F119">
-        <v>59130.000000000007</v>
-      </c>
-      <c r="G119">
-        <v>3774165.2759857001</v>
-      </c>
-      <c r="H119">
-        <v>424652.18747651088</v>
-      </c>
-      <c r="I119">
-        <v>251613173.10082099</v>
+        <v>80</v>
+      </c>
+      <c r="D119" s="2">
+        <v>799914.1817318463</v>
+      </c>
+      <c r="E119" s="2">
+        <v>639.41826815344393</v>
+      </c>
+      <c r="F119" s="2">
+        <v>43800</v>
+      </c>
+      <c r="G119" s="2">
+        <v>2135469.3978743982</v>
+      </c>
+      <c r="H119" s="2">
+        <v>270356.46944414912</v>
+      </c>
+      <c r="I119" s="2">
+        <v>107100286.04958799</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C120">
-        <v>120</v>
-      </c>
-      <c r="D120">
-        <v>7443614.8551777089</v>
-      </c>
-      <c r="E120">
-        <v>129.14482229226269</v>
-      </c>
-      <c r="F120">
-        <v>65700</v>
-      </c>
-      <c r="G120">
-        <v>14314101.399903489</v>
-      </c>
-      <c r="H120">
-        <v>774457.55949042097</v>
-      </c>
-      <c r="I120">
-        <v>1494880557.9911611</v>
+        <v>298</v>
+      </c>
+      <c r="D120" s="2">
+        <v>735096.43695306755</v>
+      </c>
+      <c r="E120" s="2">
+        <v>340.36304693261633</v>
+      </c>
+      <c r="F120" s="2">
+        <v>163155</v>
+      </c>
+      <c r="G120" s="2">
+        <v>0</v>
+      </c>
+      <c r="H120" s="2">
+        <v>984658.63235724345</v>
+      </c>
+      <c r="I120" s="2">
+        <v>366615644.29059398</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C121">
-        <v>166</v>
-      </c>
-      <c r="D121">
-        <v>3749009.0338742561</v>
-      </c>
-      <c r="E121">
-        <v>952.56612574495375</v>
-      </c>
-      <c r="F121">
-        <v>90885</v>
-      </c>
-      <c r="G121">
-        <v>11253832.03637198</v>
-      </c>
-      <c r="H121">
-        <v>869235.28271553176</v>
-      </c>
-      <c r="I121">
-        <v>1041527497.017845</v>
+        <v>84.8</v>
+      </c>
+      <c r="D121" s="2">
+        <v>705870.58917810465</v>
+      </c>
+      <c r="E121" s="2">
+        <v>199.81082189548761</v>
+      </c>
+      <c r="F121" s="2">
+        <v>46428</v>
+      </c>
+      <c r="G121" s="2">
+        <v>0</v>
+      </c>
+      <c r="H121" s="2">
+        <v>277201.48798809701</v>
+      </c>
+      <c r="I121" s="2">
+        <v>100176924.2731981</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C122">
-        <v>110</v>
-      </c>
-      <c r="D122">
-        <v>1585216.737589298</v>
-      </c>
-      <c r="E122">
-        <v>568.86241070250981</v>
-      </c>
-      <c r="F122">
-        <v>60225.000000000007</v>
-      </c>
-      <c r="G122">
-        <v>4140161.6805749252</v>
-      </c>
-      <c r="H122">
-        <v>448574.25973532163</v>
-      </c>
-      <c r="I122">
-        <v>291829794.19126493</v>
+        <v>250</v>
+      </c>
+      <c r="D122" s="2">
+        <v>694547.31930511282</v>
+      </c>
+      <c r="E122" s="2">
+        <v>31.880694886902351</v>
+      </c>
+      <c r="F122" s="2">
+        <v>136875</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0</v>
+      </c>
+      <c r="H122" s="2">
+        <v>813732.87041359267</v>
+      </c>
+      <c r="I122" s="2">
+        <v>290592085.67525327</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="B123" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C123">
-        <v>60</v>
-      </c>
-      <c r="D123">
-        <v>8343089.7892636843</v>
-      </c>
-      <c r="E123">
-        <v>3569454.210736318</v>
-      </c>
-      <c r="F123">
-        <v>32850</v>
-      </c>
-      <c r="G123">
-        <v>8048872.0312186377</v>
-      </c>
-      <c r="H123">
-        <v>403735.11742797121</v>
-      </c>
-      <c r="I123">
-        <v>854532879.82952404</v>
+        <v>216</v>
+      </c>
+      <c r="D123" s="2">
+        <v>682485.63673157757</v>
+      </c>
+      <c r="E123" s="2">
+        <v>602.36326842219569</v>
+      </c>
+      <c r="F123" s="2">
+        <v>118260</v>
+      </c>
+      <c r="G123" s="2">
+        <v>0</v>
+      </c>
+      <c r="H123" s="2">
+        <v>699828.63500585523</v>
+      </c>
+      <c r="I123" s="2">
+        <v>246721050.82808071</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B124" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C124">
-        <v>100</v>
-      </c>
-      <c r="D124">
-        <v>13193805.745552961</v>
-      </c>
-      <c r="E124">
-        <v>645.45444703660905</v>
-      </c>
-      <c r="F124">
-        <v>54750</v>
-      </c>
-      <c r="G124">
-        <v>19942309.703026831</v>
-      </c>
-      <c r="H124">
-        <v>772987.6713700348</v>
-      </c>
-      <c r="I124">
-        <v>2208066154.6477342</v>
+        <v>262</v>
+      </c>
+      <c r="D124" s="2">
+        <v>669232.86201927438</v>
+      </c>
+      <c r="E124" s="2">
+        <v>1087.137980725151</v>
+      </c>
+      <c r="F124" s="2">
+        <v>143445</v>
+      </c>
+      <c r="G124" s="2">
+        <v>0</v>
+      </c>
+      <c r="H124" s="2">
+        <v>844498.14823952783</v>
+      </c>
+      <c r="I124" s="2">
+        <v>293462468.09253192</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="B125" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C125">
-        <v>103</v>
-      </c>
-      <c r="D125">
-        <v>8459985.5060933866</v>
-      </c>
-      <c r="E125">
-        <v>91.293906613951549</v>
-      </c>
-      <c r="F125">
-        <v>56392.5</v>
-      </c>
-      <c r="G125">
-        <v>13745245.7860185</v>
-      </c>
-      <c r="H125">
-        <v>691798.60070630279</v>
-      </c>
-      <c r="I125">
-        <v>1458303989.941678</v>
+        <v>493</v>
+      </c>
+      <c r="D125" s="2">
+        <v>659833.50271353743</v>
+      </c>
+      <c r="E125" s="2">
+        <v>272.09728646231821</v>
+      </c>
+      <c r="F125" s="2">
+        <v>269917.5</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0</v>
+      </c>
+      <c r="H125" s="2">
+        <v>1583146.7239448701</v>
+      </c>
+      <c r="I125" s="2">
+        <v>544415729.24121082</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B126" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C126">
-        <v>84</v>
-      </c>
-      <c r="D126">
-        <v>5719877.6882969569</v>
-      </c>
-      <c r="E126">
-        <v>186.31170304282571</v>
-      </c>
-      <c r="F126">
-        <v>45990</v>
-      </c>
-      <c r="G126">
-        <v>8001927.2634362681</v>
-      </c>
-      <c r="H126">
-        <v>499814.73958020261</v>
-      </c>
-      <c r="I126">
-        <v>804095610.23179233</v>
+        <v>493</v>
+      </c>
+      <c r="D126" s="2">
+        <v>655014.48229774763</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1260.7177022523249</v>
+      </c>
+      <c r="F126" s="2">
+        <v>269917.5</v>
+      </c>
+      <c r="G126" s="2">
+        <v>0</v>
+      </c>
+      <c r="H126" s="2">
+        <v>1580127.7314158189</v>
+      </c>
+      <c r="I126" s="2">
+        <v>540477899.16135478</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B127" t="s">
         <v>26</v>
       </c>
       <c r="C127">
-        <v>93</v>
-      </c>
-      <c r="D127">
-        <v>3493848.0769298328</v>
-      </c>
-      <c r="E127">
-        <v>753.5230701668188</v>
-      </c>
-      <c r="F127">
-        <v>50917.5</v>
-      </c>
-      <c r="G127">
-        <v>5974128.6017812416</v>
-      </c>
-      <c r="H127">
-        <v>476856.27567530121</v>
-      </c>
-      <c r="I127">
-        <v>543791418.27023304</v>
+        <v>125</v>
+      </c>
+      <c r="D127" s="2">
+        <v>618250.2394497986</v>
+      </c>
+      <c r="E127" s="2">
+        <v>997.76055020152126</v>
+      </c>
+      <c r="F127" s="2">
+        <v>68437.5</v>
+      </c>
+      <c r="G127" s="2">
+        <v>0</v>
+      </c>
+      <c r="H127" s="2">
+        <v>394616.95491473819</v>
+      </c>
+      <c r="I127" s="2">
+        <v>129344541.7950491</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B128" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C128">
-        <v>94.8</v>
-      </c>
-      <c r="D128">
-        <v>10746651.148927091</v>
-      </c>
-      <c r="E128">
-        <v>174.45107290707529</v>
-      </c>
-      <c r="F128">
-        <v>51903</v>
-      </c>
-      <c r="G128">
-        <v>15672106.05154066</v>
-      </c>
-      <c r="H128">
-        <v>686502.89252171759</v>
-      </c>
-      <c r="I128">
-        <v>1704993860.89346</v>
+        <v>182</v>
+      </c>
+      <c r="D128" s="2">
+        <v>596395.24511633674</v>
+      </c>
+      <c r="E128" s="2">
+        <v>1147.15488366317</v>
+      </c>
+      <c r="F128" s="2">
+        <v>99645</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0</v>
+      </c>
+      <c r="H128" s="2">
+        <v>569189.5755095986</v>
+      </c>
+      <c r="I128" s="2">
+        <v>181671019.49877641</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C129">
-        <v>94.8</v>
-      </c>
-      <c r="D129">
-        <v>5062744.5960676223</v>
-      </c>
-      <c r="E129">
-        <v>1044.2039323790229</v>
-      </c>
-      <c r="F129">
-        <v>51903</v>
-      </c>
-      <c r="G129">
-        <v>8162596.9581641741</v>
-      </c>
-      <c r="H129">
-        <v>543456.67896498309</v>
-      </c>
-      <c r="I129">
-        <v>803229312.77102637</v>
+        <v>169</v>
+      </c>
+      <c r="D129" s="2">
+        <v>578346.73119322513</v>
+      </c>
+      <c r="E129" s="2">
+        <v>43.668806775007397</v>
+      </c>
+      <c r="F129" s="2">
+        <v>92527.5</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0</v>
+      </c>
+      <c r="H129" s="2">
+        <v>524308.93228381407</v>
+      </c>
+      <c r="I129" s="2">
+        <v>163575224.69764021</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="B130" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C130">
-        <v>99</v>
-      </c>
-      <c r="D130">
-        <v>6980939.8513059132</v>
-      </c>
-      <c r="E130">
-        <v>602.54869408812374</v>
-      </c>
-      <c r="F130">
-        <v>54202.5</v>
-      </c>
-      <c r="G130">
-        <v>11170796.93660694</v>
-      </c>
-      <c r="H130">
-        <v>626338.01521842764</v>
-      </c>
-      <c r="I130">
-        <v>1156623057.9455271</v>
+        <v>58</v>
+      </c>
+      <c r="D130" s="2">
+        <v>547800</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1224.000000000116</v>
+      </c>
+      <c r="F130" s="2">
+        <v>31755</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0</v>
+      </c>
+      <c r="H130" s="2">
+        <v>177429.5961895315</v>
+      </c>
+      <c r="I130" s="2">
+        <v>53178542.857142851</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="B131" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C131">
-        <v>129</v>
-      </c>
-      <c r="D131">
-        <v>6690217.2153253537</v>
-      </c>
-      <c r="E131">
-        <v>214.78467464866119</v>
-      </c>
-      <c r="F131">
-        <v>70627.5</v>
-      </c>
-      <c r="G131">
-        <v>14033183.840074951</v>
-      </c>
-      <c r="H131">
-        <v>805471.41095410753</v>
-      </c>
-      <c r="I131">
-        <v>1444347128.3823099</v>
+        <v>45</v>
+      </c>
+      <c r="D131" s="2">
+        <v>547800</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1224.0000000000871</v>
+      </c>
+      <c r="F131" s="2">
+        <v>24637.5</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0</v>
+      </c>
+      <c r="H131" s="2">
+        <v>137660.89359532611</v>
+      </c>
+      <c r="I131" s="2">
+        <v>41259214.285714284</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="B132" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C132">
-        <v>195</v>
-      </c>
-      <c r="D132">
-        <v>2961774.2087427052</v>
-      </c>
-      <c r="E132">
-        <v>401.79125729715452</v>
-      </c>
-      <c r="F132">
-        <v>106762.5</v>
-      </c>
-      <c r="G132">
-        <v>11080361.806681771</v>
-      </c>
-      <c r="H132">
-        <v>952159.46813555015</v>
-      </c>
-      <c r="I132">
-        <v>966563334.21960557</v>
+        <v>196</v>
+      </c>
+      <c r="D132" s="2">
+        <v>542925.29040491697</v>
+      </c>
+      <c r="E132" s="2">
+        <v>991.50959508260712</v>
+      </c>
+      <c r="F132" s="2">
+        <v>107310</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0</v>
+      </c>
+      <c r="H132" s="2">
+        <v>598201.74026766489</v>
+      </c>
+      <c r="I132" s="2">
+        <v>178104240.7999374</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="B133" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C133">
-        <v>105</v>
-      </c>
-      <c r="D133">
-        <v>15397383.897939829</v>
-      </c>
-      <c r="E133">
-        <v>824.10206017177552</v>
-      </c>
-      <c r="F133">
-        <v>57487.5</v>
-      </c>
-      <c r="G133">
-        <v>24164047.062462281</v>
-      </c>
-      <c r="H133">
-        <v>852855.97788357339</v>
-      </c>
-      <c r="I133">
-        <v>2705691802.904922</v>
+        <v>453</v>
+      </c>
+      <c r="D133" s="2">
+        <v>523954.18142389512</v>
+      </c>
+      <c r="E133" s="2">
+        <v>810.61857610498555</v>
+      </c>
+      <c r="F133" s="2">
+        <v>248017.5</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0</v>
+      </c>
+      <c r="H133" s="2">
+        <v>1369934.641192273</v>
+      </c>
+      <c r="I133" s="2">
+        <v>397250046.67611051</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="B134" t="s">
         <v>26</v>
       </c>
       <c r="C134">
-        <v>84.8</v>
-      </c>
-      <c r="D134">
-        <v>705870.58917810465</v>
-      </c>
-      <c r="E134">
-        <v>199.81082189548761</v>
-      </c>
-      <c r="F134">
-        <v>46428</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>277201.48798809701</v>
-      </c>
-      <c r="I134">
-        <v>100176924.2731981</v>
+        <v>308</v>
+      </c>
+      <c r="D134" s="2">
+        <v>492613.31978202239</v>
+      </c>
+      <c r="E134" s="2">
+        <v>231.48021797765981</v>
+      </c>
+      <c r="F134" s="2">
+        <v>168630</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0</v>
+      </c>
+      <c r="H134" s="2">
+        <v>916768.75394172966</v>
+      </c>
+      <c r="I134" s="2">
+        <v>253926144.45290041</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="B135" t="s">
         <v>26</v>
       </c>
       <c r="C135">
-        <v>166</v>
-      </c>
-      <c r="D135">
-        <v>8413447.065982338</v>
-      </c>
-      <c r="E135">
-        <v>664.93401766242459</v>
-      </c>
-      <c r="F135">
-        <v>90885</v>
-      </c>
-      <c r="G135">
-        <v>22044927.97161749</v>
-      </c>
-      <c r="H135">
-        <v>1113017.1903650609</v>
-      </c>
-      <c r="I135">
-        <v>2337354911.1394181</v>
+        <v>70</v>
+      </c>
+      <c r="D135" s="2">
+        <v>443289.55175317847</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1036.848246821522</v>
+      </c>
+      <c r="F135" s="2">
+        <v>38325</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0</v>
+      </c>
+      <c r="H135" s="2">
+        <v>202826.5110171561</v>
+      </c>
+      <c r="I135" s="2">
+        <v>51936666.612438262</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="B136" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C136">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="D136">
-        <v>13806890.64162072</v>
-      </c>
-      <c r="E136">
-        <v>424.55837928783149</v>
-      </c>
-      <c r="F136">
-        <v>38270.25</v>
-      </c>
-      <c r="G136">
-        <v>14536915.8217807</v>
-      </c>
-      <c r="H136">
-        <v>548227.25943084806</v>
-      </c>
-      <c r="I136">
-        <v>1615156787.1881499</v>
+        <v>50</v>
+      </c>
+      <c r="D136" s="2">
+        <v>391641.43599484762</v>
+      </c>
+      <c r="E136" s="2">
+        <v>384652.9640051524</v>
+      </c>
+      <c r="F136" s="2">
+        <v>27375</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0</v>
+      </c>
+      <c r="H136" s="2">
+        <v>142006.85963762389</v>
+      </c>
+      <c r="I136" s="2">
+        <v>34278066.918636657</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="B137" t="s">
         <v>26</v>
       </c>
       <c r="C137">
-        <v>130</v>
-      </c>
-      <c r="D137">
-        <v>2888219.7633249578</v>
-      </c>
-      <c r="E137">
-        <v>1178.6366750411689</v>
-      </c>
-      <c r="F137">
-        <v>71175</v>
-      </c>
-      <c r="G137">
-        <v>7253710.0998403234</v>
-      </c>
-      <c r="H137">
-        <v>630098.32865188504</v>
-      </c>
-      <c r="I137">
-        <v>628380765.20381868</v>
+        <v>82</v>
+      </c>
+      <c r="D137" s="2">
+        <v>387663.80081934732</v>
+      </c>
+      <c r="E137" s="2">
+        <v>483.39918065270467</v>
+      </c>
+      <c r="F137" s="2">
+        <v>44895</v>
+      </c>
+      <c r="G137" s="2">
+        <v>0</v>
+      </c>
+      <c r="H137" s="2">
+        <v>229686.7876433646</v>
+      </c>
+      <c r="I137" s="2">
+        <v>53202917.183368906</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="B138" t="s">
         <v>26</v>
       </c>
       <c r="C138">
-        <v>93.2</v>
-      </c>
-      <c r="D138">
-        <v>2530350.7318887492</v>
-      </c>
-      <c r="E138">
-        <v>266.86811125127127</v>
-      </c>
-      <c r="F138">
-        <v>51027</v>
-      </c>
-      <c r="G138">
-        <v>4735461.0976741593</v>
-      </c>
-      <c r="H138">
-        <v>434581.95964306622</v>
-      </c>
-      <c r="I138">
-        <v>394675147.38585973</v>
+        <v>125</v>
+      </c>
+      <c r="D138" s="2">
+        <v>278300.04276622972</v>
+      </c>
+      <c r="E138" s="2">
+        <v>42.357233770191669</v>
+      </c>
+      <c r="F138" s="2">
+        <v>68437.5</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0</v>
+      </c>
+      <c r="H138" s="2">
+        <v>322607.27876433678</v>
+      </c>
+      <c r="I138" s="2">
+        <v>58219353.765885092</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="B139" t="s">
         <v>43</v>
       </c>
       <c r="C139">
-        <v>60</v>
-      </c>
-      <c r="D139">
-        <v>161578.3792500649</v>
-      </c>
-      <c r="E139">
-        <v>575.22074993501883</v>
-      </c>
-      <c r="F139">
-        <v>32850</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>136160.58069256181</v>
-      </c>
-      <c r="I139">
-        <v>16227359.156791929</v>
+        <v>245</v>
+      </c>
+      <c r="D139" s="2">
+        <v>257340.43603823619</v>
+      </c>
+      <c r="E139" s="2">
+        <v>573.16396176384296</v>
+      </c>
+      <c r="F139" s="2">
+        <v>134137.5</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0</v>
+      </c>
+      <c r="H139" s="2">
+        <v>620447.69739856618</v>
+      </c>
+      <c r="I139" s="2">
+        <v>105526220.41827729</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B140" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C140">
-        <v>145</v>
-      </c>
-      <c r="D140">
-        <v>3710180.905924153</v>
-      </c>
-      <c r="E140">
-        <v>199.89407584792929</v>
-      </c>
-      <c r="F140">
-        <v>79387.5</v>
-      </c>
-      <c r="G140">
-        <v>9751618.693251932</v>
-      </c>
-      <c r="H140">
-        <v>756912.84304532153</v>
-      </c>
-      <c r="I140">
-        <v>900337178.5965035</v>
+        <v>60</v>
+      </c>
+      <c r="D140" s="2">
+        <v>161578.3792500649</v>
+      </c>
+      <c r="E140" s="2">
+        <v>575.22074993501883</v>
+      </c>
+      <c r="F140" s="2">
+        <v>32850</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0</v>
+      </c>
+      <c r="H140" s="2">
+        <v>136160.58069256181</v>
+      </c>
+      <c r="I140" s="2">
+        <v>16227359.156791929</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="B141" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C141">
-        <v>66</v>
-      </c>
-      <c r="D141">
-        <v>39831.380560436468</v>
-      </c>
-      <c r="E141">
-        <v>1026.2194395634581</v>
-      </c>
-      <c r="F141">
-        <v>36135</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>111100.6734113437</v>
-      </c>
-      <c r="I141">
-        <v>4404875.353291668</v>
+        <v>230</v>
+      </c>
+      <c r="D141" s="2">
+        <v>87683.082750684203</v>
+      </c>
+      <c r="E141" s="2">
+        <v>416.11724931577919</v>
+      </c>
+      <c r="F141" s="2">
+        <v>125925</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0</v>
+      </c>
+      <c r="H141" s="2">
+        <v>455483.52390165091</v>
+      </c>
+      <c r="I141" s="2">
+        <v>33758340.599715322</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B142" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C142">
-        <v>169</v>
-      </c>
-      <c r="D142">
-        <v>5110335.727376543</v>
-      </c>
-      <c r="E142">
-        <v>694.672623458202</v>
-      </c>
-      <c r="F142">
-        <v>92527.5</v>
-      </c>
-      <c r="G142">
-        <v>14663517.87053524</v>
-      </c>
-      <c r="H142">
-        <v>971580.77094038855</v>
-      </c>
-      <c r="I142">
-        <v>1445372877.1686809</v>
+        <v>66</v>
+      </c>
+      <c r="D142" s="2">
+        <v>39831.380560436468</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1026.2194395634581</v>
+      </c>
+      <c r="F142" s="2">
+        <v>36135</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0</v>
+      </c>
+      <c r="H142" s="2">
+        <v>111100.6734113437</v>
+      </c>
+      <c r="I142" s="2">
+        <v>4404875.353291668</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="B143" t="s">
         <v>32</v>
       </c>
       <c r="C143">
-        <v>262</v>
-      </c>
-      <c r="D143">
-        <v>669232.86201927438</v>
-      </c>
-      <c r="E143">
-        <v>1087.137980725151</v>
-      </c>
-      <c r="F143">
-        <v>143445</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>844498.14823952783</v>
-      </c>
-      <c r="I143">
-        <v>293462468.09253192</v>
+        <v>148</v>
+      </c>
+      <c r="D143" s="2">
+        <v>30117.688423815522</v>
+      </c>
+      <c r="E143" s="2">
+        <v>525.51157618447905</v>
+      </c>
+      <c r="F143" s="2">
+        <v>81030</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+      <c r="H143" s="2">
+        <v>235985.9930561255</v>
+      </c>
+      <c r="I143" s="2">
+        <v>7465842.8192989212</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="B144" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C144">
-        <v>90</v>
-      </c>
-      <c r="D144">
-        <v>9824692.1525988504</v>
-      </c>
-      <c r="E144">
-        <v>283.8474011500366</v>
-      </c>
-      <c r="F144">
-        <v>49275</v>
-      </c>
-      <c r="G144">
-        <v>13722173.67364539</v>
-      </c>
-      <c r="H144">
-        <v>633540.77120868233</v>
-      </c>
-      <c r="I144">
-        <v>1479800087.623121</v>
+        <v>360</v>
+      </c>
+      <c r="D144" s="2">
+        <v>8149.7311264683603</v>
+      </c>
+      <c r="E144" s="2">
+        <v>787.86887353161001</v>
+      </c>
+      <c r="F144" s="2">
+        <v>197100</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0</v>
+      </c>
+      <c r="H144" s="2">
+        <v>456284.33159685461</v>
+      </c>
+      <c r="I144" s="2">
+        <v>4932274.1612004004</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B145" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C145">
-        <v>200</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0</v>
+      </c>
+      <c r="E145" s="2">
+        <v>0</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="B146" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C146">
-        <v>154</v>
-      </c>
-      <c r="D146">
-        <v>5576670.1717180423</v>
-      </c>
-      <c r="E146">
-        <v>392.22828195756301</v>
-      </c>
-      <c r="F146">
-        <v>84315</v>
-      </c>
-      <c r="G146">
-        <v>14362861.672150601</v>
-      </c>
-      <c r="H146">
-        <v>909245.23329910601</v>
-      </c>
-      <c r="I146">
-        <v>1437269172.1853991</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
+      <c r="E146" s="2">
+        <v>0</v>
+      </c>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="B147" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C147">
-        <v>182</v>
-      </c>
-      <c r="D147">
-        <v>596395.24511633674</v>
-      </c>
-      <c r="E147">
-        <v>1147.15488366317</v>
-      </c>
-      <c r="F147">
-        <v>99645</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>569189.5755095986</v>
-      </c>
-      <c r="I147">
-        <v>181671019.49877641</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0</v>
+      </c>
+      <c r="E147" s="2">
+        <v>0</v>
+      </c>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B148" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C148">
-        <v>493</v>
-      </c>
-      <c r="D148">
-        <v>655014.48229774763</v>
-      </c>
-      <c r="E148">
-        <v>1260.7177022523249</v>
-      </c>
-      <c r="F148">
-        <v>269917.5</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>1580127.7314158189</v>
-      </c>
-      <c r="I148">
-        <v>540477899.16135478</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0</v>
+      </c>
+      <c r="E148" s="2">
+        <v>0</v>
+      </c>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I148">
+    <sortState ref="A2:I148">
+      <sortCondition descending="1" ref="D1:D148"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -59768,15 +59812,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3771</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>141244718.02280271</v>
       </c>
     </row>
@@ -59784,7 +59833,7 @@
       <c r="A2" t="s">
         <v>3772</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>74956577254.870178</v>
       </c>
     </row>
@@ -59792,7 +59841,7 @@
       <c r="A3" t="s">
         <v>3773</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>530.68587841117778</v>
       </c>
     </row>
@@ -59800,7 +59849,7 @@
       <c r="A4" t="s">
         <v>3774</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>211834626</v>
       </c>
     </row>
@@ -59813,11 +59862,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
